--- a/!parsed_items_100/1299/1299_2299-2400.xlsx
+++ b/!parsed_items_100/1299/1299_2299-2400.xlsx
@@ -639,13 +639,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE FRIVOLE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -655,24 +655,16 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Черный комбинезон с нежным волнистым</t>
+          <t>Вакуумный клиторальный стимулятор с</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-12923-1299</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-25449-1299</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>99999</v>
@@ -684,17 +676,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12923/12923_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12923/12923_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12923/12923_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25449/25449_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25449/25449_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25449/25449_3_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черный комбинезон с нежным волнистым узором  Abra Black (SL).  Черный комбинезон с нежным волнистым узором  Abra Black (SL). Модель: livco-03101slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Роскошный вибратор Phoenix таинственного сливового цвета  это потрясающе функциональный девайс! С ним каждый новый оргазм будет уникальным за счет большого разнообразия сочетаний 8-ми режимов глубокой вибрации и 10-ти уносящих в космос интенсивностей вакуумной стимуляции. Анатомический изгиб на конце вводимой части гарантирует плотное прилегание и феерические ощущения в области точки G, а регулируемая бесконтактная стимуляция клитора доведет Вас до пика двойного оргазма! Приятный на ощупь материал не вызывает аллергии и раздражения, а 1,5 часа работы без подзарядки гарантируют длительное наслаждение. Вакуумный клиторальный стимулятор с вагинальным стимулятором Phoenix (8+10 режимов).  Вакуумный клиторальный стимулятор с вагинальным стимулятором Phoenix (8+10 режимов). Модель: lefri-06110. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: сливовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -709,7 +701,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -726,15 +718,29 @@
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>18</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3.2</v>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -747,7 +753,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, фирменный мешочек для хранения, зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -767,40 +773,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE FRIVOLE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Черный комбинезон в сетку с узором</t>
+          <t>Средняя анальная пробка для ношения</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-12924-1299</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-25422-1299</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>99999</v>
@@ -812,17 +810,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12924/12924_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25422/25422_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25422/25422_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25422/25422_3_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Chrysanthe представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного сетчатого материала с интересным узором. Чулок на тонких бретелях отлично облегает фигуру, подчеркивая все её возбуждающие изгибы. Черный комбинезон в сетку с узором Chrysanthe  Black (SL).  Черный комбинезон в сетку с узором Chrysanthe  Black (SL). Модель: livco-03124slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Этот великолепный стимулятор Libra страстного темно-красного цвета вознесет Вас на вершину блаженства! Роскошный рельеф, состоящий из 2 шариков разного диаметра обещает максимум впечатлений, а основание в форме якоря служит безопасным ограничителем, что обеспечит комфортное и чувственное проникновение. Нежный бархатистый материал добавит тактильных ощущений и полностью безопасен. Позволь своим эротическим забавы стать насыщенными и яркими!.Средняя анальная пробка для ношения Libra L.  Средняя анальная пробка для ношения Libra L. Модель: lefri-06153l. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -837,7 +835,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -854,28 +852,52 @@
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14</v>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.1</v>
+      </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>118</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>118</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>118</v>
+      </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>анальная пробка, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -895,13 +917,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE FRIVOLE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -911,22 +933,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Черный комбинезон с ажурным узором</t>
+          <t>Игривые трусики с доступом и короткой</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-13086-1299</t>
+          <t>id-27010-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -940,17 +962,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13086/13086_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27010/27010_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27010/27010_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27010/27010_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27010/27010_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27010/27010_5_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черный комбинезон с ажурным узором Elissa Black (SL).  Черный комбинезон с ажурным узором Elissa Black (SL). Модель: livco-03128slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Романтичная модель с высокой талией скрывает все недостатки фигуры и придаёт образу игривости. Сочетание шифона, кружева и лент делает ваш образ лёгким и манящим, так и хотеться узнать - что же там, под оборкой. Шифоновая юбочка сделает ваши изгибы ещё более женственными. Этот модель станет отличным аксессуаром для сексуальной игры. А особая конструкция позволит заняться сексом не снимая трусиков. Игривые трусики с доступом и короткой юбочкой SM.  Игривые трусики с доступом и короткой юбочкой SM. Модель: lefri-06691smb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Юбки, брюки, шорты. Цвет: черный. Материал: 84% полиамид, 16% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -965,7 +987,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>84% полиамид, 16% эластан</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -1003,7 +1025,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>трусики-юбочка</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1023,13 +1045,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE FRIVOLE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1039,22 +1061,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Черный комбинезон с ажурным</t>
+          <t>Чарующие трусики с доступом из кружева</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-12903-1299</t>
+          <t>id-26962-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1068,17 +1090,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12903/12903_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12903/12903_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26962/26962_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26962/26962_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26962/26962_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26962/26962_4_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черный комбинезон с ажурным верхом Josslyn Black (SL).  Черный комбинезон с ажурным верхом Josslyn Black (SL). Модель: livco-03280slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Фантазийные трусики из кружева и лент, станут отличным акцентом и перчинкой вашей встречи! Благодаря прекрасной посадке и уникальному дизайну трусики подчеркнут все достоинства вашей фигуры оставив тайну, которую будут разгадывать весь вечер. Гипоаллергенное кружево принесёт новые ощущения в вашу встречу, а трусики станут базой вашего эротического гардероба. Чарующие трусики с доступом из кружева и стреп-лент LXL.  Чарующие трусики с доступом из кружева и стреп-лент LXL. Модель: lefri-06692lxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 76% полиамид, 24% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1093,7 +1115,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>76% полиамид, 24% эластан</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -1151,13 +1173,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE FRIVOLE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1167,22 +1189,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черный комбинезон с узором Zita Black </t>
+          <t>Чарующие трусики с доступом из кружева</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-13459-1299</t>
+          <t>id-26960-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1196,17 +1218,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13459/13459_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13459/13459_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13459/13459_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26960/26960_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26960/26960_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26960/26960_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26960/26960_4_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Zita представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного чулочного материала в мелкую сетку и декорирован нежным узором . Глубокое декольте оформлено крупной сеткой. Комбинезон отлично облегает тело, подчеркивая его женственность и сексуальность. В области половых органов выполнен вырез, что дает возможность оставаться в белье даже во время интимной близости. Черный комбинезон с узором Zita Black  (SL).  Черный комбинезон с узором Zita Black  (SL). Модель: livco-03285slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Фантазийные трусики из кружева и лент, станут отличным акцентом и перчинкой вашей встречи! Благодаря прекрасной посадке и уникальному дизайну трусики подчеркнут все достоинства вашей фигуры оставив тайну, которую будут разгадывать весь вечер. Гипоаллергенное кружево принесёт новые ощущения в вашу встречу, а трусики станут базой вашего эротического гардероба. Чарующие трусики с доступом из кружева и стреп-лент XSS.  Чарующие трусики с доступом из кружева и стреп-лент XSS. Модель: lefri-06692xssb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 76% полиамид, 24% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1221,7 +1243,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>76% полиамид, 24% эластан</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -1279,13 +1301,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE FRIVOLE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1295,12 +1317,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Белый комбинезон с узором Zita White</t>
+          <t>Костюм элегантной горничной ML Premium</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-13463-1299</t>
+          <t>id-28278-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1324,17 +1346,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13463/13463_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13463/13463_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13463/13463_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28278/28278_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28278/28278_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28278/28278_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28278/28278_4_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Zita представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного чулочного материала в мелкую сетку и декорирован нежным узором. Глубокое декольте оформлено крупной сеткой. Комбинезон отлично облегает тело, подчеркивая его женственность и сексуальность. В области половых органов выполнен вырез, что дает возможность оставаться в белье даже во время интимной близости. Белый комбинезон с узором Zita White (SL).  Белый комбинезон с узором Zita White (SL). Модель: livco-03286slw. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Когда вам нужна уборка срочно вызывайте горничную. Костюм элегантно горничной создаст утончённый образ без пошлости, подчеркнув все достоинства и скрыв недостатки. Чёрный трикотаж хорошо облегает фигуру, создавая иллюзию песочных часов. Игривые элементы рюши и чокера создадут сказочную ауру образа. Открытая спина эротического костюма горничной подчеркнёт вашу индивидуальность. Благодаря чокеру, чулкам и переднику в комплекте у вас появляется ещё больше идей для игр.Перьевая палочка в комплект не входит, но ее можно приобрести отдельно в нашем магазине (id-7245-0000). Костюм элегантной горничной ML (Premium quality).  Костюм элегантной горничной ML (Premium quality). Модель: lefri-06710mlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с белым. Материал: 65% полиэстер, 30% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1349,7 +1371,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>65% полиэстер, 30% нейлон, 5% спандекс</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1387,7 +1409,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье, передник, чокер на шею, чулки</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1407,13 +1429,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LEG AVENUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1423,12 +1445,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Красный комбинезон с узором Zita Red</t>
+          <t>Лакированные туфли на шнуровке с</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-13809-1299</t>
+          <t>id-6986-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1452,17 +1474,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13809/13809_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13809/13809_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6986/6986_1_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Красный комбинезон с узором Zita Red (SL).  Красный комбинезон с узором Zita Red (SL). Модель: livco-03287slr. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Лакированные туфли на шнуровке с фигурным каблуком 38 (SALE -50%).  Лакированные туфли на шнуровке с фигурным каблуком 38 (SALE -50%). Модель: legavenue-5010-38. Белье. Страпоны и фаллопротезы. Эротическое белье для женщин &gt; Обувь. Цвет: бело-черный. Материал: искусственная лакированная кожа. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1477,7 +1499,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>искусственная лакированная кожа</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1535,13 +1557,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LEG AVENUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1551,12 +1573,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Черный комбинезон с ажурным верхом</t>
+          <t>Шикарные черные туфли со стразами</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-13472-1299</t>
+          <t>id-7003-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1580,17 +1602,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13472/13472_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13472/13472_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7003/7003_1_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бодистокинг создан для темпераментных женщин из черного полупрозрачного кружева. Temperance дает женщине полную свободу, эластичный и отлично сидит на теле. Воздействуя на мужское воображение, цветочные и симметричные узоры придают фигуре желаемой формы, а тонкие женственные вырезы позволяют пережить приятные моменты, не снимая костюма. Плечи и спину  украшают страстные бретельки. Верх сделан в виде тонкого корсета. Костюм не выделяется под платьем, а колготки прекрасно подходят к юбке, придавая эффект плотно сплетенной сетки чулков на ногах. Черный комбинезон с ажурным верхом Temperance Black (SL).  Черный комбинезон с ажурным верхом Temperance Black (SL). Модель: livco-03502slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Шикарные черные туфли со стразами Glamour 38 (SALE -65%).  Шикарные черные туфли со стразами Glamour 38 (SALE -65%). Модель: legavenue-5035-38b. Белье. Страпоны и фаллопротезы. Эротическое белье для женщин &gt; Обувь. Цвет: черный. Материал: искусственная кожа, атлас, стразы. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1605,7 +1627,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>искусственная кожа, атлас, стразы</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1663,13 +1685,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LEG AVENUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1679,12 +1701,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Черный комбинезон с ажурным узором</t>
+          <t>Шикарные голубые туфли со стразами</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-13815-1299</t>
+          <t>id-7014-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1703,22 +1725,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Шикарные голубые туфли со стразами Glamour 39 (SALE -65%)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13815/13815_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13815/13815_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7014/7014_7014_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черный бодистокинг - комбинация топа и чулок из узорного кружева. Эластичный и удобный. Имеет интимный вырез, надежно застегивается и не сдавливает. Бодистокинг Bansari великолепно подчеркивает ноги, делая их более стройными благодаря асимметричному узору и плотному плетению кружева  идеально подходит под платье. В верхней части - глубокий вырез с разной ширины плетением ткани и оригинальными открытыми участками на груди и животе. Функцию бретелек выполняют тесемки с модными разрезами. Бодистокинг идеально повторяет очертания тела. Черный комбинезон с ажурным узором Bansari Black (SL).  Черный комбинезон с ажурным узором Bansari Black (SL). Модель: livco-03534slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Шикарные голубые туфли со стразами Glamour 39 (SALE -65%).  Шикарные голубые туфли со стразами Glamour 39 (SALE -65%). Модель: legavenue-5035-39bl. Белье. Страпоны и фаллопротезы. Эротическое белье для женщин &gt; Обувь. Цвет: голубой. искусственная кожа, атлас, стразыБренд: LEG AVENUE. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1731,11 +1753,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>90% полиамид, 10% эластан</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
@@ -1771,7 +1789,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> высота платформы 3,5 см, высота каблука 14,5 см</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -1791,13 +1809,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LEG AVENUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1807,22 +1825,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Боди-комбинезон Esmeralda с имтацией</t>
+          <t>Сексуальный комплект с открытым лифом L</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-24932-1299</t>
+          <t>id-9874-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1836,17 +1854,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24932/24932_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24932/24932_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9874/9874_1_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди-комбинезон в мелкую сеточку с бантиками и имитацией чулок. Боди-комбинезон Esmeralda с имтацией чулок.  Боди-комбинезон Esmeralda с имтацией чулок. Модель: livco-17188slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Сексуальный комплект с открытым лифом L.  Сексуальный комплект с открытым лифом L. Модель: legavenue-8085lb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 80% нейлон, 20% спандекс. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1861,7 +1879,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>80% нейлон, 20% спандекс</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -1899,7 +1917,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>боди-комбинезон</t>
+          <t>лиф, стринги</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1919,13 +1937,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LEG AVENUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1935,12 +1953,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Боди-комбинезон с имитацией чулок</t>
+          <t>Кружевной розовый комплект</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-22446-1299</t>
+          <t>id-12151-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1964,17 +1982,17 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22446/22446_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22446/22446_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12151/12151_1_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди-комбинезон в мелкую сеточку с рисунком. Боди-комбинезон с имитацией чулок Arisha SL.  Боди-комбинезон с имитацией чулок Arisha SL. Модель: livco-17260slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Кружевной розовый комплект.  Кружевной розовый комплект. Модель: legavenue-81219slp. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: розовый. Материал: 100% нейлон. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1989,7 +2007,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>100% нейлон</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -2027,7 +2045,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>лиф, трусики</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2047,13 +2065,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Головные уборы эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LEG AVENUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2063,12 +2081,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Боди-комбинезон в мелкую сеточку</t>
+          <t>Мини-шляпка с бантиком</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-22445-1299</t>
+          <t>id-8990-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2092,17 +2110,17 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22445/22445_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22445/22445_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8990/8990_1_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди-комбинезон в мелкую сеточку с рисунком. Боди-комбинезон в мелкую сеточку Cameron SL.  Боди-комбинезон в мелкую сеточку Cameron SL. Модель: livco-17265slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Мини-шляпка с бантиком.  Мини-шляпка с бантиком. Модель: legavenue-a1680sl. Белье. Эротическое белье для женщин &gt; Фуражки, головные уборы. Цвет: красный с черным. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2115,11 +2133,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>90% полиамид, 10% эластан</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
@@ -2155,7 +2169,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>боди-комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2175,13 +2189,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LEG AVENUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2191,22 +2205,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Новогодний боди-комбинезон с</t>
+          <t>Телесное боди из микрофибры Leg Avenue</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-22869-1299</t>
+          <t>id-19964-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2220,32 +2234,32 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22869/22869_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22869/22869_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22869/22869_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22869/22869_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19964/19964_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19964/19964_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19964/19964_1_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Красный кэтсьют с имитацией боди и чулок на поясе без интимного доступа. Особую нарядность модели придаёт белоснежный пух марабу. Радостный перезвон бубенчиков создаст праздничное настроение!.Новогодний боди-комбинезон с бубенчиками и пухом марабу Shivali SL.  Новогодний боди-комбинезон с бубенчиками и пухом марабу Shivali SL. Модель: livco-17284slr. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: белый, красный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Телесное боди из микрофибры Leg Avenue Q-size.  Телесное боди из микрофибры Leg Avenue Q-size. Модель: legavenue-pc8001q. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Белье большого размера. Цвет: телесный. Материал: нейлон. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t xml:space="preserve">90% полиамид, 10% эластан </t>
+          <t>нейлон</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2283,7 +2297,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2303,13 +2317,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2319,12 +2333,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Контактный боди-комбинезон с вырезом на</t>
+          <t>Боди из мелкой сеточки с оригинальныи</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-22450-1299</t>
+          <t>id-22281-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2348,32 +2362,32 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22450/22450_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22450/22450_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22450/22450_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22281/22281_1_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди-комбинезон в мелкую сеточку с открытыми ягодицами и полуоткрытой спиной. Вырез на ягодицах в форме сердца. Контактный боди-комбинезон с вырезом на ягодицах в форме сердца Sonia SL.  Контактный боди-комбинезон с вырезом на ягодицах в форме сердца Sonia SL. Модель: livco-17285slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Боди - особая эротическая одежда, помогающая создать романтичный настрой и заинтересовать партнера во время интимных игр. Боди из мелкой сеточки с длинными рукавами облегает тело, подчеркивая сексуальные изгибы и выгодно демонстрирует прелести фигуры, благодаря оригинальным вставкам из переплетений по всей длине изделия. Эротическое белье больше показывает, чем скрывает, и все же оно оставляет простор для мужской фантазии и любопытства. Откровенное боди с открытой зоной декольте даст вам возможность продемонстрировать свои прелести в наиболее волнующем ракурсе. Боди из мелкой сеточки с оригинальныи вставками.  Боди из мелкой сеточки с оригинальныи вставками. Модель: leshali-1007slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -2411,7 +2425,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2431,13 +2445,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2447,22 +2461,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Боди-комбинезон с имитацией чулок</t>
+          <t>Эротичное платье с длинным рукавом</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-22451-1299</t>
+          <t>id-22277-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-48</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2476,32 +2490,32 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22451/22451_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22451/22451_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22277/22277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22277/22277_2_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный комбинезон и имитиацией чулочек и топа. Боди-комбинезон с имитацией чулок Dalitso SL.  Боди-комбинезон с имитацией чулок Dalitso SL. Модель: livco-17287slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Черное секси-платьице c глубоким овальным вырезом и длинными рукавами выполнено черной сетчатой ткани в мелкий горошек и цветочным мотивом. Открывает взгляду Ваши соблазнительные ножки и делает Вашу фигуру более утонченной, привлекает внимание к аппетитным ягодицам, отлично сидит и эротично подчеркивает форму тела. Трусики не входят в комплект. Эротичное платье с длинным рукавом.  Эротичное платье с длинным рукавом. Модель: leshali-1039slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2539,7 +2553,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -2565,7 +2579,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2575,12 +2589,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Комбинезон с фантазийным узором и с</t>
+          <t>Фиолетовый комбинезон с имитацией</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-22447-1299</t>
+          <t>id-23711-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2604,32 +2618,32 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22447/22447_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22447/22447_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23711/23711_1_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди-комбинезон с открытой спиной в сеточку с разным плетением. Комбинезон с фантазийным узором и с имитацией чулок.  Комбинезон с фантазийным узором и с имитацией чулок. Модель: livco-17290slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">В искусстве соблазнения много особенностей и одна из них - уверенность в собственной сексуальности. Каждая женщина временами хочет чувствовать себя не просто привлекательной, а неотразимой, яркой и развратной. Для этого используется эротическое белье, предназначенное для любовных игр.Необычный и сексуальный кэтсьюит из фиолетовой сеточки понравится любой девушке. Материал украшен оригинальным орнаментом. Низ сделан в виде имитации чулок с пажами. Наряд хорошо сочетается с высокими каблуками и другими аксессуарами. Прозрачная ткань на груди смотрится эротично и пикантно. Атласная шнуровка является дополнительным украшением к образу. Освежите отношения с помощью сексуального белья и смелого перевоплощения. Обыграйте образ и ваш партнер обязательно захочет повторения страстного вечера! Трусики в комплект не входят. Фиолетовый комбинезон с имитацией шнуровки и чулок SL.  Фиолетовый комбинезон с имитацией шнуровки и чулок SL. Модель: leshali-1048sl. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: фиолетовый. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -2693,7 +2707,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2703,12 +2717,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Боди-комбинезон Adelina SL</t>
+          <t>Фиолетовый комбинезон с двойными</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-22453-1299</t>
+          <t>id-23710-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2732,32 +2746,32 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22453/22453_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22453/22453_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23710/23710_1_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежный боди-комбинезон в мелкую сеточку с рисунком. Боди-комбинезон Adelina SL.  Боди-комбинезон Adelina SL. Модель: livco-17295slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Если не знаете как освежить отношения не прибегая к серьезным экспериментам или как удивить и произвести незабываемое впечатление попробуйте эротическое белье. Особое место здесь занимает кетсьюит. Это комбинезон-чулок с эффектом второй кожи. Он не скрывает красоту женского тела, а лишь добавляет таинственности образу. Он смотрится возбуждающе, придает уверенности и позволяет раскрепоститься. Мужчины оценят откровенность и соблазнительность наряда. Кетсьюит выполнен из тонкой фиолетовой полупрозрачной облагающей ткани, облегает фигуру и подчеркивает каждый изгиб. Ажурная ткань оттеняет кожу и добавляет соблазнительности. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными. Бретели открывают руки, плечи и шею. Такой образ идеален для романтического вечера и любовных утех! Трусики в комплект не входят. Фиолетовый комбинезон с двойными бретелями и с имитацией чулок SL.  Фиолетовый комбинезон с двойными бретелями и с имитацией чулок SL. Модель: leshali-1053sl. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: фиолетовый. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -2821,7 +2835,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2831,12 +2845,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Контактный комбинезон с узором в форме</t>
+          <t>Черный сетчатый комбинезон с бахромой</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-22455-1299</t>
+          <t>id-21585-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2860,32 +2874,32 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22455/22455_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22455/22455_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22455/22455_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22455/22455_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21585/21585_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21585/21585_2_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный боди-комбинезон в мелкую сеточку с ажурным рисунком в форме крыльев, подчеркивает формы. Контактный комбинезон с узором в форме крыльев Renza SL.  Контактный комбинезон с узором в форме крыльев Renza SL. Модель: livco-17297slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">В искусстве соблазнения много особенностей, и одна из них - уверенность в собственной сексуальности. Каждая женщина временами хочет чувствовать себя не просто привлекательной, а неотразимой, яркой и развратной. Для этого используется эротическое белье, предназначенное для любовных игр. В этот список входит и кэтсьюит, объединяющий чулки и боди. Это комбинезон-чулок, плотно облегающий тело. Материал оттеняет кожу, подчеркивает формы.Необычный и сексуальный кэтсьюит из черной ткани понравится любой девушке. Сделанный в виде мелкой сеточки соблазнительно облегает тело,грудь смотрится эротично и пикантно. Мини юбка из бахромы, украшенная кружевным пояском придает образу игривость и легкость. Низ сделан в виде имитации чулок с пажами. Наряд хорошо сочетается с высокими каблуками и другими аксессуарами. Линия декольте украшена ажурным кружевом и  привлекает внимание к области декольте. Освежите отношения с помощью сексуального белья и смелого перевоплощения. Обыграйте образ, и ваш партнер обязательно захочет повторения страстного вечера!Трусики не входят в комплект. Черный сетчатый комбинезон с бахромой.  Черный сетчатый комбинезон с бахромой. Модель: leshali-1054slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -2949,7 +2963,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2959,12 +2973,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Фантазийный контактный комбинезон с</t>
+          <t>Фиолетовый комбинезон с бантиками и с</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-24931-1299</t>
+          <t>id-23709-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2988,32 +3002,32 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24931/24931_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24931/24931_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24931/24931_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23709/23709_1_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный боди-комбинезон в мелкую сеточку с цветочным рисунком, приспущенными  длинными рукавами и имитацией шнуровки на груди. Фантазийный контактный комбинезон с открытыми плечами Olamiden.  Фантазийный контактный комбинезон с открытыми плечами Olamiden. Модель: livco-17300slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">В искусстве соблазнения много особенностей и одна из них - уверенность в собственной сексуальности. Каждая женщина временами хочет чувствовать себя не просто привлекательной, а неотразимой, яркой и развратной. Для этого используется эротическое белье, предназначенное для любовных игр. В этот список входит и кетсьюит, объединяющий чулки и боди. Это комбинезон-чулок, плотно облегающий тело. Материал оттеняет кожу, подчеркивает формы.Сексуальный кетсьюит необычного фиолетового цвета понравится любой девушке. Материал украшен ажурным цветочным рисунком. Низ сделан в виде имитации чулок с пажами. Наряд хорошо сочетается с высокими каблуками и другими аксессуарами. Прозрачная ткань на груди смотрится эротично и пикантно. Необычные тонкие бретели с бантиками привлекают внимание к области декольте, открывают руки и плечи. Освежите отношения с помощью сексуального белья и смелого перевоплощения. Обыграйте образ и ваш партнер обязательно захочет повторения страстного вечера!Трусики не входят в комплект. Фиолетовый комбинезон с бантиками и с имитацией чулок SL.  Фиолетовый комбинезон с бантиками и с имитацией чулок SL. Модель: leshali-1093sl. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: фиолетовый. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -3077,7 +3091,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3087,12 +3101,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Комплект с жемчугом и с имитацией чулок</t>
+          <t>Комбинезон с имитацией чулок и шнуровки</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-22440-1299</t>
+          <t>id-21586-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3116,32 +3130,32 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22440/22440_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22440/22440_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21586/21586_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21586/21586_2_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный боди-комбинезон в мелкую сеточку с ажурным рисунком, изделие украшено жемчугом. Трусики в комплект не входят. Комплект с жемчугом и с имитацией чулок Pirvina SL.  Комплект с жемчугом и с имитацией чулок Pirvina SL. Модель: livco-17311slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Кэтсьюит  c длинным рукавом выполнен из тонкой черной полупрозрачной ткани. Она облегает фигуру и подчеркивает каждый изгиб. На груди эротичный вырез, открывающий зону декольте. Ажурная ткань оттеняет кожу и добавляет соблазнительности. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными.и . Спина остается открытой до середины, а переплетения из веревочек придают пикантности. Такой образ идеален для романтического вечера и любовных утех!Трусики не входят в комплект. Комбинезон с имитацией чулок и шнуровки на спинке.  Комбинезон с имитацией чулок и шнуровки на спинке. Модель: leshali-1215-2slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -3205,7 +3219,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3215,12 +3229,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Боди-комбинезон в мелкую сеточку с</t>
+          <t>Красный контактный комбинезон с вырезом</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-22655-1299</t>
+          <t>id-21581-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3244,32 +3258,32 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22655/22655_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22655/22655_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22655/22655_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21581/21581_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21581/21581_2_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эффектный боди-комбинезон в мелкую сетку с затейливым узором.Верх соединяется с чулочками, повторяя рисунок. Боди-комбинезон в мелкую сеточку с имитацией чулок на поясе Mircianna SL.  Боди-комбинезон в мелкую сеточку с имитацией чулок на поясе Mircianna SL. Модель: livco-17313slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Красный романтичный кетсьюит - отличное дополнение образа роковой соблазнительницы. Если вы хотите удивить партнера и внести разнообразие в интимную жизнь, используйте этот эротический наряд. Комбинезон-чулок полностью облегает тело и подчеркивает его сексуальность, он демонстрирует многое, но скрывает самое главное. Такой наряд будоражит фантазию, эффектно подчеркивает привлекательность и при этом не мешает партнерам наслаждаться любовными утехами.Эффектный кетсьюит полностью закрывает ноги, подчеркивая их стройность и зрительно увеличивая длину. При этом зона промежности остается открытой, поэтому костюм не придется снимать при завершении прелюдии. Его можно надевать без нижнего белья или комбинировать с бюстгальтером, он отлично подойдет для смелых экспериментов в постели. Эластичный материал легко растягивается, зона декольте дополнена глубоким вырезом с атласной лентой, что делает образ еще более соблазнительным!.Красный контактный комбинезон с вырезом на животике.  Красный контактный комбинезон с вырезом на животике. Модель: leshali-1228slr. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: красный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t xml:space="preserve">90% полиамид, 10% эластан </t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -3327,13 +3341,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3343,12 +3357,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Откровенное боди со стразами Narleni SL</t>
+          <t>Ярко-розовый контактный комбинезон SL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-23260-1299</t>
+          <t>id-23712-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3372,32 +3386,32 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23260/23260_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23260/23260_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23260/23260_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23712/23712_1_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эффектное боди с вырезами и открытой спинкой. Модель украшает россыпь серебристых бусинок со стразами. Откровенное боди со стразами Narleni SL.  Откровенное боди со стразами Narleni SL. Модель: livco-17327slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Кэтсьюит c доступом подойдет дамам с любой фигурой. Полупрозрачный материал приоткрывает завесу тайны, но оставляет закрытым все самое интересное. Как вернуть отношениям былую страсть и новизну, испытать яркие эмоции или поразить нового любовника смелым образом? С этой целью существует кэтсьюит из тончайшей полупрозрачной ткани. С его помощью женщина усиливает сексуальность, подчеркивает формы, оттеняет цвет кожи. Мужчина оценит белье за его откровенность и соблазнительность. Девушка в таком наряде чувствует себя королевой, развратной кошечкой или роковой красавицей. Ярко-розовый цвет добавляет пикантности образу.Под него можно надевать или не надевать трусики. Наряд подойдет для прелюдии или сексуальных игр. Осмельтесь на эксперимент, попробуйте себя в новых образах, чтобы партнер влюблялся в вас снова и снова!.Ярко-розовый контактный комбинезон SL.  Ярко-розовый контактный комбинезон SL. Модель: leshali-1336slp. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: неоновый розовый. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t xml:space="preserve">90% полиамид, 10% эластан </t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -3435,7 +3449,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3461,7 +3475,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3471,22 +3485,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Сексуальное платье Laurinda SM</t>
+          <t>Бордовое платье со шнуровкой на спинке</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-22488-1299</t>
+          <t>id-22280-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -3500,32 +3514,32 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22488/22488_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22488/22488_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22280/22280_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22280/22280_1_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальное мини-платье из эластичной сеточки и лент сделает Вас сногсшибательной обольстительницей. Ни один мужчина не останется равнодушным! У платья есть пажи для крепления к чулочкам. Чулки в комплект не входят. Сексуальное платье Laurinda SM.  Сексуальное платье Laurinda SM. Модель: livco-30153smb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Чарующая магия эротизма чувственно окутает Ваше соблазнительное тело в этом великолепном мини-платьице. Оно выполнено из невероятно мягкой тонкой полупрозрачной сеточки винного цвета с орнаментом. Атласная лента по спинке придает платью оригинальности и одновременно можно ее использовать для коррекции посадки платья по фигуре. Продуманный дизайн интимного наряда позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках. Откровенное платье подарит уверенность в собственной привлекательности. Приобретая его Вы делаете ставку на страстные отношения и желанное разнообразие в интимной жизни. Будьте уверены, этот чувственный образ ни за что не оставит мужчину в сомнениях, а напротив  подтолкнёт к решительным действиям.Трусики не входят в комплект. Бордовое платье со шнуровкой на спинке.  Бордовое платье со шнуровкой на спинке. Модель: leshali-1534slr. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: бордовый с черным. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>88% полиэстер, 12% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -3563,7 +3577,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>платье, трусики</t>
+          <t>мини-платье</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3583,13 +3597,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3599,22 +3613,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Костюм медсестры Cascadia LXL</t>
+          <t>Ажурное мини-платье с глубоким декольте</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-22486-1299</t>
+          <t>id-22279-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3628,32 +3642,32 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22486/22486_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22486/22486_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22279/22279_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22279/22279_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22279/22279_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22279/22279_2_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди роскошной медсестры создаст необходимый образ для игр с партнером. Он будет готов болеть каждый день, если Вы будете лечить его в таком костюме. . Костюм медсестры Cascadia LXL.  Костюм медсестры Cascadia LXL. Модель: livco-32629lxl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Сексуальное мини-платьице из кружевной сеточки идеально подойдет любой девушке. Невероятное сочетание женственности, эротичности и кокетства делает образ просто сногсшибательным. Глубокая зона декольте украшена тонкими лентами, спина остается полностью открытой. Тонкие завязки на шее и спине для удобства. Приятный на ощупь материал подогревает желания каждый раз, когда руки партнера касаются тела сексапильной красотки. Продуманный дизайн интимного наряда позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках. Откровенное платье подарит уверенность в собственной привлекательности. Приобретая такой комплект, делаете ставку на страстные отношения и желанное разнообразие в интимной жизни.Трусики не входят в комплект. Ажурное мини-платье с глубоким декольте и открытой спинкой.  Ажурное мини-платье с глубоким декольте и открытой спинкой. Модель: leshali-3732slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>88% полиэстер, 12% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -3691,7 +3705,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>боди, чулки, ободок</t>
+          <t>мини-платье</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3711,13 +3725,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3727,22 +3741,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Костюм медсестры Cascadia SM</t>
+          <t>Боди с геометрическим орнаментом и</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-22487-1299</t>
+          <t>id-22282-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -3756,32 +3770,32 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22487/22487_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22487/22487_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22282/22282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22282/22282_2_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди роскошной медсестры создаст необходимый образ для игр с партнером. Он будет готов болеть каждый день, если Вы будете лечить его в таком костюме. . Костюм медсестры Cascadia SM.  Костюм медсестры Cascadia SM. Модель: livco-32629sm. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Боди - особая эротическая одежда, помогающая создать романтичный настрой и заинтересовать партнера во время интимных игр. Боди с длинным рукавом из мелкой сеточки с геометрическим орнаментом плотно облегает тело, подчеркивая сексуальные изгибы, при этом он не мешает движениям и выгодно демонстрирует прелести фигуры. Область спины при этом остается максимально открытой. Боди больше показывает, чем скрывает, и все же оно оставляет простор для мужской фантазии и любопытства. Боди с геометрическим орнаментом и открытой спинкой.  Боди с геометрическим орнаментом и открытой спинкой. Модель: leshali-6026slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>88% полиэстер, 12% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -3819,7 +3833,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>боди, чулки, ободок</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3839,13 +3853,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3855,22 +3869,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Чёрная ажурная маска Mask Black Model 9</t>
+          <t>Боди с цветочным орнаментом и отделкой</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-16443-1299</t>
+          <t>id-22278-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-48</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -3884,17 +3898,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16443/16443_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22278/22278_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22278/22278_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22278/22278_2_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">В своих секретных мечты ты всегда хотела быть девушкой Бэтмена? Теперь можешь ею стать, благодаря уникальной маске, которая пробудит в тебе скрытые мечты. Маска черного цвета хорошо сидит на лице благодаря эластичной резинке. Искусный декор придает ей уникальности и таинственности, закрывая лоб, участки вокруг глаз и носа. Чёрная ажурная маска Mask Black Model 9.  Чёрная ажурная маска Mask Black Model 9. Модель: livco-40754slb. Белье. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">У каждой женщины, считающей себя привлекательной, в гардеробе должно быть хотя бы одно сексуальное боди. Даже самая большая скромница благодаря эффектной эротической одежде способна покорить самого капризного мужчину. Нежное боди с цветочным орнаментом придаст телу сексуальности, подчеркнет достоинства, поможет вашему телу быть еще более желанным и привлекательным. Эротическое боди способно пробудить в мужчине невероятные эмоции! Алые атласные ленточки-бретельки и отделка по линии груди и бедер придают особенную изысканность . Боди с цветочным орнаментом и отделкой из атласной ленты.  Боди с цветочным орнаментом и отделкой из атласной ленты. Модель: leshali-6098slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный с красным. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3909,7 +3923,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -3947,7 +3961,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3967,13 +3981,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3983,12 +3997,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Чёрная ажурная маска Mask Black Model</t>
+          <t>Эластичное боди с длинным рукавом</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-16445-1299</t>
+          <t>id-22414-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4012,32 +4026,32 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16445/16445_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22414/22414_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22414/22414_2_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Озорная черная маска, загадочный и соблазнительный элемент женского наряда. Ее романтическое звучание проявляется в декоре, который был помещен на высоте лба - кружевное сердце красиво сочетается с боковым, отважным орнаментом. На глазах находится декоративный мотив, который подчеркивает женственный, соблазнительный взгляд, в то время как усиливая его мощь. Чёрная ажурная маска Mask Black Model 10.  Чёрная ажурная маска Mask Black Model 10. Модель: livco-40761slb. Белье. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Невероятно нежное, женственное боди с длинными рукавами и полуоткрытой спинкой специально создано, чтобы подчеркнуть все достоинства женской фигуры. Очень красивая модель дополнит ваш сексуальный образ, а также подойдет для каждодневного ношения. Выполнено из мягкой эластичной сеточки. Выгодно подчеркивает зону груди и живота благодаря крупному переплетению в этой области. Без доступа. Эластичное боди с длинным рукавом LeShali (без доступа).  Эластичное боди с длинным рукавом LeShali (без доступа). Модель: leshali-6119slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -4075,7 +4089,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -4101,7 +4115,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4111,12 +4125,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Черный комбинезон с крупной сеткой по</t>
+          <t>Фантазийный комбинезон с ажурными</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-17243-1299</t>
+          <t>id-21584-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4140,32 +4154,32 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17243/17243_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17243/17243_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21584/21584_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21584/21584_2_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черный комбинезон с крупной сеткой по бокам Althina SL.  Черный комбинезон с крупной сеткой по бокам Althina SL. Модель: livco-41423slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Черный ажурный кэтсьюит из тончайшего полупрозрачного материала станет отличным приобретением. Эластичная ткань делает наряд универсальным, он прекрасно смотрится на дамах любого размера. Низ выполнен в виде чулок на пажах. Спина открытая, топ украшен необычным узором. Тонкие бретели и вырезы стройнят и вытягивают силуэт. Манжеты на ленте имитируют наручники, добавляя пикантности. Удивите своего парня, мужа или любовника ярким сексуальным образом. Такой наряд хорошо сочетается с высокими каблуками и другими аксессуарами!.Фантазийный комбинезон с ажурными наручниками.  Фантазийный комбинезон с ажурными наручниками. Модель: leshali-6308slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный с красным. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -4203,7 +4217,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>комбинезон, ажурные фиксаторы на руки</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4223,13 +4237,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4239,22 +4253,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Мини-платье с кружевными вставками и</t>
+          <t>Боди-комбинезон с бантиком на груди и</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-24334-1299</t>
+          <t>id-22895-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -4268,32 +4282,32 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24334/24334_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24334/24334_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24334/24334_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22895/22895_1_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающее мини-платье из прозрачной сеточки со вставками из кружева. Сзади бретельки регулируются по высоте, а на шее завязочка превращается в игривый бантик, который легко развязать во время любовных игр. В комплект входят трусики-шортики с боковыми разрезами. Мини-платье с кружевными вставками и трусиками Neearis SM.  Мини-платье с кружевными вставками и трусиками Neearis SM. Модель: livco-53544smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Чтобы произвести впечатление на любимого мужчину и заставить восхищаться вашей красотой и женственностью, нарядитесь в этот изысканный кэтсьюит LeShali Qween Size перед интимной встречей.Эротический наряд заставит партнера буквально поедать вас глазами и трепетать от предвкушения. Надев этот кэтсьюит, продемонстрируете мужчине свою соблазнительную фигуру и вызовете у него мощнейшую эрекцию.Кэтсьюит с цветочным принтом имеет пикантный бантик, который придает образу нотку игривости и романтизма. Верхняя часть кэтсьюита соединёна эластичными лентами с чулками спереди и сзади.Комбинезон одевается легко и быстро, удобная лямочка через шею и отсутствие рукавов, значительно облегчают дело, и позволяют не тратить время на одевание.раздевание, которое можно посвятить общению с любимым человеком.Используя такое эротическое белье, продлите прелюдию и еще сильнее возбудите партнера, также применение кэтсьюита во время ролевой игры позволит избавиться от чрезмерной скованности и стеснительности.Вы почувствуете себя смелой и решительной женщиной, которая не боится экспериментировать в постели с любимым человеком.Трусики в данный комплект не входят. Боди-комбинезон с бантиком на груди и открытой спиной Queen Size.  Боди-комбинезон с бантиком на груди и открытой спиной Queen Size. Модель: leshali-66013qb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -4331,7 +4345,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>мини-платье, трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4351,13 +4365,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -4367,22 +4381,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Колготки с имитацией ажурных чулок</t>
+          <t>Черный комбинезон с имитацией чулок Le</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-22627-1299</t>
+          <t>id-22892-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -4396,32 +4410,32 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22627/22627_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22892/22892_1_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантные колготки с цветочным рисунком чулочков. изготовлены из однослойной эластановой пряжи для прочности. Колготки с имитацией ажурных чулок Durdonata 2 (20 den).  Колготки с имитацией ажурных чулок Durdonata 2 (20 den). Модель: livco-5431-2b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 89% полиамид, 10% эластан, 1% хлопок. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Если вы когда-то мечтали о том, чтобы мужчина навсегда остался во власти вашего очарования и сексуальности, то комбинезон LeShali Qween Size, это именно то, что поможет реализовать все ваши мечты и фантазии! В нём вы несомненно поймёте на сколько вы прекрасны и соблазнительны, а также, сможете сполна раскрыть свою природную женственность и сексуальность.Комбинезон LeShali Qween Size состоит как из двух частей  боди и чулков на подвязках, которые выполнены в одном стиле и смотрятся весьма эффектно, ведь мелкая сеточка, создающая эффект таинственности и широкие вставки из кружев, делают тело совершенным и сексапильным, одновременно придавая ему стройности и идеальных пропорций.Но самым захватывающим как для партнёра, так и для вас, будет просвечивающийся бюст на элегантных бретельках, игриво демонстрирующий грудь, и открытая промежность, которая позволяет блистать в наряде, даже в то время, когда вы предаетесь плотским утехам.Эластичная ткань делает наряд универсальным, он прекрасно смотрится на дамах любого размера.Трусики в данный комплект не входят. Черный комбинезон с имитацией чулок Le Shali Queen Size.  Черный комбинезон с имитацией чулок Le Shali Queen Size. Модель: leshali-66014qb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>89% полиамид, 10% эластан, 1% хлопок</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -4479,13 +4493,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -4495,22 +4509,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Колготки с имитацией ажурных чулок</t>
+          <t>Комбинезон в сеточку с имитацией</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-22628-1299</t>
+          <t>id-22894-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -4524,32 +4538,32 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22628/22628_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22894/22894_1_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантные колготки с цветочным рисунком чулочков. изготовлены из однослойной эластановой пряжи для прочности. Колготки с имитацией ажурных чулок Durdonata 3 (20 den).  Колготки с имитацией ажурных чулок Durdonata 3 (20 den). Модель: livco-5431-3b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 89% полиамид, 10% эластан, 1% хлопок. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Мега соблазнительный комбинезон LeShali Qween Size - просто находка для каждой женщины, являющейся предметом вожделения тех мужчин, которые любят девушек в теле, разбираются в настоящей женской красоте, и ценят пышные формы, не меньше чем соблазнительную улыбку или кокетливый взгляд.На первый взгляд, создается впечатление, что это корсет с подвязками и чулками, однако это ни более чем милая иллюзия, которая стала возможной благодаря стараниям лучших дизайнеров. К тому же, органичное сочетание крупной и мелкой сетки, узоров, а также имитации шнуровки, как и полагается настоящему корсету, сделала этот наряд одним из самых востребованных и популярным.Самая главная изюминка в том, что комбинезон LeShali Qween Size оставляет зону промежности и ягодицы открытыми! Это значит, что при отсутствии трусиков, вы можете предаваться любовным утехам прямо в нем, при этом оставаясь невероятно сексуальной и привлекательной, как и в момент своего первого появления.Эластичная ткань делает наряд универсальным, он прекрасно смотрится на дамах любого размера.Трусики в данный комплект не входят. Комбинезон в сеточку с имитацией корсета и чулок Queen Size.  Комбинезон в сеточку с имитацией корсета и чулок Queen Size. Модель: leshali-66016qb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>89% полиамид, 10% эластан, 1% хлопок</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -4607,13 +4621,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -4623,22 +4637,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Колготки с имитацией ажурных чулок</t>
+          <t>Ажурный комбинезон со стразами и с</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-22629-1299</t>
+          <t>id-21587-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -4652,32 +4666,32 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22629/22629_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21587/21587_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21587/21587_2_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантные колготки с цветочным рисунком чулочков. изготовлены из однослойной эластановой пряжи для прочности. Колготки с имитацией ажурных чулок Durdonata 4 (20 den).  Колготки с имитацией ажурных чулок Durdonata 4 (20 den). Модель: livco-5431-4b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 89% полиамид, 10% эластан, 1% хлопок. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Кэтсьюит выполнен из тонкой черной полупрозрачной  ажурной ткани. Она облегает фигуру и подчеркивает каждый изгиб,оттеняет кожу и добавляет соблазнительности. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными. Спина остается открытой до середины.Лиф по всей длине украшен орнаментом из страз. Такой образ идеален для романтического вечера и любовных утех!Трусики не входят в комплект. Ажурный комбинезон со стразами и с имитацией чулок.  Ажурный комбинезон со стразами и с имитацией чулок. Модель: leshali-8286slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>89% полиамид, 10% эластан, 1% хлопок</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -4715,7 +4729,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4735,13 +4749,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4751,22 +4765,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Чёрный прозрачный халат с кружевными</t>
+          <t>Контактный комбинезон с фантазийным</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-16430-1299</t>
+          <t>id-21271-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -4780,32 +4794,32 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16430/16430_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16430/16430_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21271/21271_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21271/21271_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21271/21271_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21271/21271_3_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Просторный халат Fuksja, завязываемый в поясе бархатной лентой. Полупрозрачный халат, украшенный по концам узорчатым, изящным кружевом.  Широкие рукава длиной 2.3. Халат имеет длину до середины икры и прекрасно сочетается с таким ночным бельём, как ночная рубашка, боди-комбинезон, с корсетом и и коротким платьем. Fuksja  это необычно эротичный халат, предназначенный для романтических моментов и тёплых летних ночей. Когда Вы пожелаете пробудить в себе чувственность, наденьте изысканный халат Fuksja. Мы гарантируем прекрасные ощущения, которые может дать только высококачественное ночное бельё. Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown S.  Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown S. Модель: livco-84181sb. Белье. Смазки, косметика. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Кетсьюит - особая эротическая одежда, помогающая создать романтичный настрой и заинтересовать партнера во время интимных игр, Кетсьюит с длинным рукавом плотно облегает тело, подчеркивая сексуальные изгибы, при этом он не мешает движениям и выгодно демонстрирует прелести фигуры. Эротическое белье больше показывает, чем скрывает, и все же оно оставляет простор для мужской фантазии и любопытства.Кетсьюит с длинным рукавом оставляет ноги полностью закрытыми, облегает талию и полностью закрывает руки. Эротичные вырезы на груди и спине приковывают взгляд, зона декольте выполнена из полупрозрачного материала. Сплошные участки наряда эффектно комбинируются с сеткой, она частично открывает грудь и живот. Несмотря на закрытость наряда, он смотрится соблазнительно и эротично, его стоит надеть без нижнего белья. Дополнением могут стать высокие каблуки, чулки и другие детали образа роковой красотки!Трусики в комплект не входят. Контактный комбинезон с фантазийным узором.  Контактный комбинезон с фантазийным узором. Модель: leshali-dj1047slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -4843,7 +4857,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>халат, пояс</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4863,13 +4877,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4879,22 +4893,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Чёрный прозрачный халат с кружевными</t>
+          <t>Черное ажурное боди Le Shali SL</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-16428-1299</t>
+          <t>id-21248-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4908,32 +4922,32 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16428/16428_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16428/16428_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16428/16428_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21248/21248_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21248/21248_1_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Просторный халат Fuksja, завязываемый в поясе бархатной лентой. Полупрозрачный халат, украшенный по концам узорчатым, изящным кружевом.  Широкие рукава длиной 2.3. Халат имеет длину до середины икры и прекрасно сочетается с таким ночным бельём, как ночная рубашка, боди-комбинезон, с корсетом и и коротким платьем. Fuksja  это необычно эротичный халат, предназначенный для романтических моментов и тёплых летних ночей. Когда Вы пожелаете пробудить в себе чувственность, наденьте изысканный халат Fuksja. Мы гарантируем прекрасные ощущения, которые может дать только высококачественное ночное бельё. Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown L.  Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown L. Модель: livco-84204lb. Белье. Смазки, косметика. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Боди - особая эротическая одежда, помогающая создать романтичный настрой и заинтересовать партнера во время интимных игр, Боди плотно облегает тело, подчеркивая сексуальные изгибы, при этом он не мешает движениям и выгодно демонстрирует прелести фигуры. Эротическое белье больше показывает, чем скрывает, и все же оно оставляет простор для мужской фантазии и любопытства.Боди с ажурным рисунком оставляет ноги полностью открытыми, облегает талию и подчеркивает все достоинства вашей фигуры. Соблазнительный и эротичный, его стоит надеть без нижнего белья. Дополнением могут стать высокие каблуки, чулки и другие детали образа роковой красотки!Трусики в комплект не входят. Черное ажурное боди Le Shali SL.  Черное ажурное боди Le Shali SL. Модель: leshali-dj1067slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -4971,7 +4985,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>халат, пояс</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4991,13 +5005,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -5007,22 +5021,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Чёрный прозрачный халат с кружевными</t>
+          <t>Красный комбинезон с белым лебяжьим</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-16431-1299</t>
+          <t>id-21266-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -5036,32 +5050,32 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16431/16431_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16431/16431_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16431/16431_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21266/21266_1_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Просторный халат Fuksja, завязываемый в поясе бархатной лентой. Полупрозрачный халат, украшенный по концам узорчатым, изящным кружевом.  Широкие рукава длиной 2.3. Халат имеет длину до середины икры и прекрасно сочетается с таким ночным бельём, как ночная рубашка, боди-комбинезон, с корсетом и и коротким платьем. Fuksja  это необычно эротичный халат, предназначенный для романтических моментов и тёплых летних ночей. Когда Вы пожелаете пробудить в себе чувственность, наденьте изысканный халат Fuksja. Мы гарантируем прекрасные ощущения, которые может дать только высококачественное ночное бельё. Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown XL.  Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown XL. Модель: livco-84211xlb. Белье. Смазки, косметика. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Приятный на ощупь материал подогревает желания каждый раз, когда руки партнера касаются тела сексапильной красотки. Продуманный дизайн интимного наряда позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках.Отделка из лебяжьего пуха придает образу особенно привлекательный вид. Трусики не входят в комплект. Красный комбинезон с белым лебяжьим пухом.  Красный комбинезон с белым лебяжьим пухом. Модель: leshali-dj1228slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: красный с белым. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -5099,7 +5113,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>халат, пояс</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -5119,13 +5133,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -5135,22 +5149,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Черный комбинезон с узором Zita Black</t>
+          <t>Эластичное мини-платье со стразами</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-17287-1299</t>
+          <t>id-21373-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -5164,32 +5178,32 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17287/17287_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17287/17287_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17287/17287_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21373/21373_1_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Zita представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного чулочного материала в мелкую сетку и декорирован нежным узором . Глубокое декольте оформлено крупной сеткой. Комбинезон отлично облегает тело, подчеркивая его женственность и сексуальность. В области половых органов выполнен вырез, что дает возможность оставаться в белье даже во время интимной близости. Черный комбинезон с узором Zita Black (XLXXL).  Черный комбинезон с узором Zita Black (XLXXL). Модель: livco-89360xlxxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Смелое,  откровенное и безумно соблазнительное платье, которое можно надеть на свидание. . если вы собираетесь провести его дома. Эластичная облегающая ткань эффектно оформленный лиф , украшенный стразами , закрытая грудь, спинка и. . в этом платье открыты взгляду все прелести. Ни один мужчина не сможет устоять перед девушкой в этом наряде!.Эластичное мини-платье со стразами.  Эластичное мини-платье со стразами. Модель: leshali-dj3470slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5227,7 +5241,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -5247,13 +5261,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -5263,22 +5277,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Новогоднее платье со шнуровкой и</t>
+          <t>Чёрный сетчатый комбинезон с имитацией</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-22866-1299</t>
+          <t>id-21251-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -5292,32 +5306,32 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22866/22866_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22866/22866_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22866/22866_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21251/21251_1_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительное платье новогодней прелестницы с капюшоном, украшено перьями марабу. Бюст выполнен из кружевного полотна. Шнуровка и косточки обеспечат идеальную посадку по фигуре. Новогоднее платье со шнуровкой и косточками Snowflake LXL.  Новогоднее платье со шнуровкой и косточками Snowflake LXL. Модель: livco-90093lxlr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: белый, красный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Если не знаете, как освежить отношения, не прибегая к серьезным экспериментам, или как удивить и произвести незабываемое впечатление, попробуйте эротическое белье. Особое место здесь занимает кетсьюит. Это комбинезон-чулок с эффектом второй кожи. Он не скрывает красоту женского тела, а лишь добавляет таинственности образу. Он смотрится возбуждающе, придает уверенности и позволяет раскрепоститься. Мужчины оценят откровенность и соблазнительность наряда.Кетсьюит выполнен из тонкой черной полупрозрачной ткани. Она облегает фигуру и подчеркивает каждый изгиб. На груди эротичный вырез, открывающий зону декольте. Прозрачная ткань как вуаль  оттеняет кожу и добавляет соблазнительности ,подчеркивая красоту и грацию вашего тела. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными. Спина остается открытой до середины. Такой образ идеален для романтического вечера и любовных утех!.Чёрный сетчатый комбинезон с имитацией чулок Le Shali SL.  Чёрный сетчатый комбинезон с имитацией чулок Le Shali SL. Модель: leshali-dj3575slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t xml:space="preserve">90% полиамид, 10% эластан </t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5355,7 +5369,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5375,13 +5389,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -5391,22 +5405,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Новогоднее платье со шнуровкой и</t>
+          <t>Сетчатый контактный комбинезон с</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-22865-1299</t>
+          <t>id-21375-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -5420,32 +5434,32 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22865/22865_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22865/22865_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22865/22865_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21375/21375_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21375/21375_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21375/21375_3_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительное платье новогодней прелестницы с капюшоном, украшено перьями марабу. Бюст выполнен из кружевного полотна. Шнуровка и косточки обеспечат идеальную посадку по фигуре. Новогоднее платье со шнуровкой и косточками Snowflake SM.  Новогоднее платье со шнуровкой и косточками Snowflake SM. Модель: livco-90093smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: белый, красный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Кэтсьюит выполнен из тонкой черной полупрозрачной ткани. Она облегает фигуру и подчеркивает каждый изгиб. На груди эротичный вырез, открывающий зону декольте. Ажурная ткань оттеняет кожу и добавляет соблазнительности.Крупные дерзкие переплетения на ногах  делают их особенно стройными. Бретели открывают руки, плечи и шею.Прозрачный лиф соединен с колготочками необычным плетением из тонких веревочек в области талии.  Такой образ идеален для романтического вечера и любовных утех!.Сетчатый контактный комбинезон с фантазийным узором.  Сетчатый контактный комбинезон с фантазийным узором. Модель: leshali-dj6197slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t xml:space="preserve">90% полиамид, 10% эластан </t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5483,7 +5497,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5503,13 +5517,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -5519,22 +5533,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Черный атласный комплект Jacqueline LXL</t>
+          <t>Эротическое платье с имитацией чулок Le</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-22442-1299</t>
+          <t>id-21381-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-46</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -5548,32 +5562,32 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22442/22442_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22442/22442_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22442/22442_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21381/21381_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21381/21381_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21381/21381_2_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантный комплект, состоящий из ночной сорочки и пеньюара. Сатиновая сорочка на тонких бретелях декорирована кружевом в зоне декольте. Короткий пеньюар с длинными рукавами также украшен кружевом. Халатик завязывается на пояс на талии. Трусики стринги входят в комплект. Черный атласный комплект Jacqueline LXL.  Черный атласный комплект Jacqueline LXL. Модель: livco-90249-1lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 95 % полиэстер, 5 % эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Платье с длинным рукавом в комбинации с чулками на пажах .Приятный на ощупь материал подогревает желания каждый раз, когда руки партнера касаются тела сексапильной красотки. Продуманный дизайн интимного наряда  позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках. Откровенное платье подарит уверенность в собственной привлекательности. Приобретая такой комплект, делаете ставку на страстные отношения и желанное разнообразие в интимной жизни.Трусики не входят в комплект. Эротическое платье с имитацией чулок Le Shali SL.  Эротическое платье с имитацией чулок Le Shali SL. Модель: leshali-dj6221slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>95 % полиэстер, 5 % эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -5611,7 +5625,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>халат, сорочка, трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5631,13 +5645,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -5647,22 +5661,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Черный атласный комплект Jacqueline SM</t>
+          <t>Комбинезон с жемчугом с имитацией чулок</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-23390-1299</t>
+          <t>id-21376-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -5676,32 +5690,32 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23390/23390_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23390/23390_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23390/23390_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21376/21376_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21376/21376_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21376/21376_3_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект эротического белья страстного красного цвета, состоящий из сорочки, пеньюара и трусиков. Белье изготовлено из атласной ткани и украшено кружевом. Короткая сорочка на тонких регулируемых бретелях обнажает спину и плечи. Зона декольте расшита кружевом с цветочным узором. Элегантный пеньюар с длинными рукавами также декорирован кружевами. Завязывается на талии с помощью пояса. Аккуратные трусики стринги в тон завершают комплект. Черный атласный комплект Jacqueline SM.  Черный атласный комплект Jacqueline SM. Модель: livco-90249-1smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 95% полиэстер, 5% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Кэтсьюит выполнен из тонкой черной полупрозрачной ткани, облегает фигуру и подчеркивает каждый изгиб. На груди эротичный вырез, украшенный изящными бусинами под жемчуг и небольшим бантом. Бретели открывают руки, плечи и шею. Ажурная ткань оттеняет кожу и добавляет соблазнительности. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными. Спина остается открытой до середины. К наряду также прилагаются аккуратные кружевные наручники, с красной атласной лентой для связывания . Бусинки эффектно расположились и на них. Такой образ идеален для романтического вечера и любовных утех!Трусики в комплект не входят. Комбинезон с жемчугом с имитацией чулок и наручниками.  Комбинезон с жемчугом с имитацией чулок и наручниками. Модель: leshali-dj6242slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный с красным и белым. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>95% полиэстер, 5% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5739,7 +5753,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>халат, сорочка, трусики</t>
+          <t>комбинезон, наручники</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5759,13 +5773,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5775,22 +5789,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Черный атласный комплект Jacqueline 2XL</t>
+          <t>Сетчатое мини-платье с перчатками</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-22443-1299</t>
+          <t>id-21377-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -5804,32 +5818,32 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22443/22443_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22443/22443_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22443/22443_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21377/21377_1_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантный комплект, состоящий из ночной сорочки и пеньюара. Сатиновая сорочка на тонких бретелях декорирована кружевом в зоне декольте. Короткий пеньюар с длинными рукавами также украшен кружевом. Халатик завязывается на пояс на талии. Трусики стринги входят в комплект. Черный атласный комплект Jacqueline 2XL.  Черный атласный комплект Jacqueline 2XL. Модель: livco-90249-1xxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 95 % полиэстер, 5 % эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Комплект состоит из прозрачного черного платья с геометрическим рисунком, плотно облегающего фигуру и соблазнительных  эластичных перчаток украшенных жемчужными бусинами. Платье отлично подходит для приятного романтического времяпровождения, страстных ролевых игр и смелых экспериментов в постели.Приятный на ощупь материал подогревает желания каждый раз, когда руки партнера касаются тела сексапильной красотки. Продуманный дизайн интимного наряда позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках. Откровенное платье подарит уверенность в собственной привлекательности. Приобретая такой комплект, делаете ставку на страстные отношения и желанное разнообразие в интимной жизни.Трусики не входят в комплект. Сетчатое мини-платье с перчатками.  Сетчатое мини-платье с перчатками. Модель: leshali-dj6247slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный с белым. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>95 % полиэстер, 5 % эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -5867,7 +5881,7 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>халат, сорочка, трусики</t>
+          <t>мини-платье, перчатки с жемчужинами</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -5887,13 +5901,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5903,12 +5917,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Лиловый атласный комплект Jacqueline</t>
+          <t>Черное эротическое платье Le Shali SL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-22437-1299</t>
+          <t>id-21250-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -5918,7 +5932,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>42-48</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -5932,32 +5946,32 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22437/22437_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22437/22437_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22437/22437_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22437/22437_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22437/22437_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21250/21250_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21250/21250_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21250/21250_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21250/21250_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21250/21250_3_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантный комплект, состоящий из ночной сорочки и пеньюара. Атласная сорочка на тонких бретелях декорирована кружевом в зоне декольте. Короткий пеньюар с длинными рукавами также украшен кружевом. Халатик завязывается на пояс на талии. Трусики стринги входят в комплект. Лиловый атласный комплект Jacqueline Violet SM.  Лиловый атласный комплект Jacqueline Violet SM. Модель: livco-90249-2sm. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Халатики. Цвет: лиловый. Материал: 95 % полиэстер, 5 % эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Комплект состоит из прозрачного черного платья с кружевным низом, плотно облегающего фигуру, и соблазнительных эластичных перчаток по локоть. Платье украшено вставкой из крупной сетки, соединяющей горловину с ажурным кружевом у подола. Дизайн перчаток предусматривает наличие черных атласных лент, связав которые можно ограничить подвижность партнерши. Белье отлично подходит для приятного романтического времяпровождения, страстных ролевых игр и смелых экспериментов в постели.Приятный на ощупь материал подогревает желания каждый раз, когда руки партнера касаются тела сексапильной красотки. Продуманный дизайн интимного наряда позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках. Откровенное платье подарит уверенность в собственной привлекательности. Приобретая такой комплект, делаете ставку на страстные отношения и желанное разнообразие в интимной жизни.Трусики не входят в комплект.Черное эротическое платье Le Shali SL.  Черное эротическое платье Le Shali SL. Модель: leshali-jt2555slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>95 % полиэстер, 5 % эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -5995,7 +6009,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>халат, сорочка, трусики</t>
+          <t>платье, перчатки</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -6015,13 +6029,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE SHALI</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -6031,22 +6045,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Атласный комплект Jacqueline LXL</t>
+          <t>Черный комбинезон с имитацией чулок Le</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-22434-1299</t>
+          <t>id-21252-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -6060,32 +6074,32 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22434/22434_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22434/22434_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22434/22434_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22434/22434_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21252/21252_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21252/21252_2_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантный комплект из искусственного шёлка, сорочка на тонких бретелях, пеньюар и трусики. Атласный комплект Jacqueline LXL.  Атласный комплект Jacqueline LXL. Модель: livco-90249lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Халатики. Цвет: шампань. Материал: 95 % полиэстер, 5 % эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Если не знаете, как освежить отношения, не прибегая к серьезным экспериментам, или как удивить и произвести незабываемое впечатление, попробуйте эротическое белье. Особое место здесь занимает кэтсьюит. Это комбинезон-чулок с эффектом второй кожи. Он не скрывает красоту женского тела, а лишь добавляет таинственности образу. Он смотрится возбуждающе, придает уверенности и позволяет раскрепоститься. Мужчины оценят откровенность и соблазнительность наряда.Кэтсьюит выполнен из тонкой черной полупрозрачной ткани. Она облегает фигуру и подчеркивает каждый изгиб. На груди эротичный вырез, открывающий зону декольте. Ажурная ткань оттеняет кожу и добавляет соблазнительности. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными. Бретели открывают руки, плечи и шею. Спина остается открытой до середины. Такой образ идеален для романтического вечера и любовных утех!.Черный комбинезон с имитацией чулок Le Shali SL.  Черный комбинезон с имитацией чулок Le Shali SL. Модель: leshali-jt6084slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>95 % полиэстер, 5 % эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -6123,7 +6137,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>халат, сорочка, трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -6143,40 +6157,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE WAND</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Атласный комплект Jacqueline 3XL</t>
+          <t>Мощный серебристый беспроводной</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-22436-1299</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-20667-1299</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>99999</v>
@@ -6188,32 +6194,32 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22436/22436_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22436/22436_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22436/22436_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22436/22436_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20667/20667_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20667/20667_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20667/20667_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20667/20667_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20667/20667_5_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантный комплект из искусственного шёлка, сорочка на тонких бретелях, пеньюар и трусики. Атласный комплект Jacqueline 3XL.  Атласный комплект Jacqueline 3XL. Модель: livco-90249xxxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Цвет: шампань. Материал: 95 % полиэстер, 5 % эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Люксовая уникальная версия ванд-массажеров для всего тела от премиум-марки Le Wand. В массажере соединились стиль, функциональность и комфорт использования. Большая широкая головка массажера выполнена из безопасного силикона, кнопки управления также из мягкого материала для удобства. Ванды славятся одной из самых мощных вибраций и универсальностью использования. Серебристый le Wand имеет 10 скоростей интенсивности массажа и 20 запрограмированных режимов. Включая самый необычный режим - хаотичная вибрация, когда массажер сам выбирает, какую функцию активировать. Скорости переключаются минусом и плюсом, их же используйте для включения.выключения вибратора. Функции переключаются центральной кнопкой. Большая головка расположена на гибкой шее, которая позволяет использовать стимулятор для массажа различных мест с максимальным комфортом. Массажер на перезаряжаемом аккумуляторе позволит забыть о батарейках, зарядное устройство в комплекте. Для полной зарядки требуется 3 часа, время работы на одном заряде - 3 часа, есть световой индикатор, который мигает, когда заряжается, горит постоянно, когда массажер полностью заряжен. Если индикатор часто мигает, значит зарядка подходит к концу. В комплекте чехол на молнии и текстурированная насадка для головки массажера со спиральным рисунком. Эту мягкую и нежную насадку хорошо использовать при интимном использовании массажера (для стимуляции клитора или груди). Аккуратно ухаживайте за своим le Wand, используйте щадящие чистящие средства или специальный очистители для взрослых игрушек. Инструкция на русском языке в комплекте. Массажер имеет трэвел лок - зажмите плюс и минус одновременно, чтобы заблокировать массажер от случайного включения. Чтобы разблокировать - повторите процедуру. Мощный серебристый беспроводной массажер Le Wand (20 режимов, 10 скоростей).  Мощный серебристый беспроводной массажер Le Wand (20 режимов, 10 скоростей). Модель: lewand-001-gry. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Вибромассажеры. Элитная прод</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>95 % полиэстер, 5 % эластан</t>
+          <t>пластик, высококачественный силикон с бархатистой поверхностью, TPE</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -6230,15 +6236,25 @@
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
+      <c r="Y45" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>33</v>
+      </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
+      <c r="AF45" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>5.6</v>
+      </c>
       <c r="AH45" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6251,7 +6267,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>халат, сорочка, трусики</t>
+          <t>массажер, зарядное устройство, сменные вилки для зарядного устройства, мягкая насадка на головку массажера для интимного массажа, чехол на молнии, инструкция</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -6271,40 +6287,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE WAND</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Красный кружевной комплект Claudia LXL</t>
+          <t>Мощный жемчужный беспроводной массажер</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-22479-1299</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-20757-1299</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>99999</v>
@@ -6316,32 +6324,32 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22479/22479_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22479/22479_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22479/22479_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20757/20757_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20757/20757_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20757/20757_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20757/20757_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20757/20757_5_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кружевной сексуальный комплект: корсет и трусики, их идеально дополняют чулочки. Корсет без косточек, спереди выполнен из кружевного материала, чашка мягкая без косточки, украшена более эластичным кружевом, за счет этого изделие будет идеально сидеть по фигуре. Верх спинки из кружева, низ из стрейч-атласного материала. Пажи для чулок регулируются по длине, отстегиваются. Трусики стринги из стрейч-атласного материала. Чулочки из мягкого эластичного тюля, верх из эластичного кружева. Красный кружевной комплект Claudia LXL.  Красный кружевной комплект Claudia LXL. Модель: livco-90337lxlr. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Комплекты. Цвет: красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бре</t>
+          <t xml:space="preserve">Люксовая уникальная версия ванд-массажеров для всего тела от премиум-марки Le Wand. В массажере соединились стиль, функциональность и комфорт использования. Большая широкая головка массажера выполнена из безопасного силикона, кнопки управления также из мягкого материала для удобства. Ванды славятся одной из самых мощных вибраций и универсальностью использования. Жемчужный le Wand имеет 10 скоростей интенсивности массажа и 20 запрограмированных режимов. Включая самый необычный режим - хаотичная вибрация, когда массажер сам выбирает, какую функцию активировать. Скорости пекрелючаются минусом и плюсом, их же используйте для включения.выключения вибратора. Функции переключаются центральной кнопкой. Большая головка расположена на гибкой шее, которая позволяет использовать стимулятор для массажа различных мест с максимальным комфортом. Массажер на перезаряжемом аккумляторе позволит забыть о батарейках, зарядное устройство в комплекте. Для полной зарядки требуется 3 часа, время работы на одном заряде - 3 часа, есть световой индикатор, который мигает, когда заряжается, горит постоянно, когда массажер полностью заряжен. Если индикатор часто мигает, значит зарядка подходит к концу. В комплекте чехол на молнии и текстурированная насадка для головки массажера со спиральным рисунком. Эту мягкую и нежную насадку хорошо использовать при интимном использовании массажера (для стимуляции клитора или груди). Аккуратно ухаживайте за своим le Wand, используйте щадящие чистящие средства или специальный очистители для взрослых игрушек. Инструкция на русском языке в комплекте. Полная длина массажера 33 см, размер массажирующей головки 7 см на 5,5 см. Массажер имеет трэвел лок - зажмите плюс и минус одновременно, чтобы заблокировать массажер от случайного включения. Чтобы разблокировать - повторите процедуру. Мощный жемчужный беспроводной массажер Le Wand (20 режимов, 10 скоростей).  Мощный жемчужный беспроводной массажер Le Wand (20 режимов, 10 скоростей). Модель: lewand-001-prl. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Вибромассажеры. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: жемчужный. Материал: пластик, высококачественный силикон с бархатистой поверхностью, TPE. Батареек нет в комплекте. Бренд: LE WAND. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>пластик, высококачественный силикон с бархатистой поверхностью, TPE</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -6358,15 +6366,25 @@
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
+      <c r="Y46" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>33</v>
+      </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
+      <c r="AF46" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>5.5</v>
+      </c>
       <c r="AH46" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6379,7 +6397,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>ками, трусики, чулки</t>
+          <t>массажер, зарядное устройство, сменные вилки для зарядного устройства, мягкая насадка на головку массажера для интимного массажа, чехол на молнии, инструкция</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -6399,13 +6417,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LE WAND</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -6415,24 +6433,16 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Элегантная чёрная сорочка Anisa LXL</t>
+          <t>Люксовый перезаряжаемый небольшой</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-22458-1299</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-22943-1299</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>99999</v>
@@ -6444,32 +6454,32 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22458/22458_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22458/22458_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22458/22458_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22458/22458_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22943/22943_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22943/22943_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22943/22943_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22943/22943_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22943/22943_5_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантная чёрная сорочка на тонких бретелях из стрейч-атласного материала, благодаря составу ткани идеально облегает фигуру. Чашка мягкая на косточке, прекрасно поддерживает грудь. Трусики входят в комплект. Элегантная чёрная сорочка Anisa LXL.  Элегантная чёрная сорочка Anisa LXL. Модель: livco-90382lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Le Wand Grand Bullet - это увеличенная версия мини-пули от Le Wand. Для тех, кто хочет еще больше и сильнее, потому что Grand Bullet на 40% мощнее, чем его меньший аналог и подходит для продвинутых любителей игрушек, которые знают что нужно их телу. 10 режимов вибрации и 5 уровня интенсивности докажут вам, что здесь размер не имеет значения. Элегантный и простой в использовании гаджет легко управляется одним нажатием в нижней части корпуса - уровни и режимы вибрации управляются одной кнопкой. Также он полностью выполнен из безопасного металла, поэтому вы можете погружать его в воду до 30 минут. Поставляется в комплекте с двумя съемными текстурированными силиконовыми насадками, которые усилят ваши ощущения и позволят использовать пулю для внешней и внутренней стимуляции. Заряжается с помощью магнитной зарядки. Просто подключите USB-разъем к вашему компьютеру или зарядному устройству и закрепите магнитную головку на пульке. Полная зарядка даст вам 1 час игры. В наборе есть бархатная сумочка, которая позволяет взять игрушку с собой и сделать ее забавной частью того, что вы носите в сумке каждый день. Очень тихий мотор и возможность заблокировать игрушку в путешествии. Люксовый перезаряжаемый небольшой вибратор Le Wand Grand Bullet (10 режимов).  Люксовый перезаряжаемый небольшой вибратор Le Wand Grand Bullet (10 режимов). Модель: lewand-013-rg. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: розовое золото. Материал: высококачественный силикон с бархатистой поверхностью, металл. Батареек нет в комплекте. Бренд: LE WAND. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>высококачественный силикон с бархатистой поверхностью, металл</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -6484,17 +6494,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X47" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>12</v>
+      </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
+      <c r="AF47" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AH47" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6507,7 +6531,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>сорочка, трусики</t>
+          <t>мини-вибратор, магнитное зарядное USB-устройство, две сменные силиконовые насадки, мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6527,62 +6551,54 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LINGOX FACTORY</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Элегантная чёрная сорочка Anisa SM</t>
+          <t>Мастурбатор-вагина в тубе Anny Aurora</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-22457-1299</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-18473-1299</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>99999</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Мастурбатор-вагина в тубе Anny Aurora Vagina Private Stars</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22457/22457_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22457/22457_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22457/22457_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22457/22457_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18473/18473_18473_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантная чёрная сорочка на тонких бретелях из стрейч-атласного материала, благодаря составу ткани идеально облегает фигуру. Чашка мягкая на косточке, прекрасно поддерживает грудь. Трусики входят в комплект. Элегантная чёрная сорочка Anisa SM.  Элегантная чёрная сорочка Anisa SM. Модель: livco-90382smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Мастурбатор-вагина в тубе Anny Aurora Vagina Private Stars.  Мастурбатор-вагина в тубе Anny Aurora Vagina Private Stars. Модель: lingox-6011019. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный, черный корпус. TPE (Re-Evolution Skin Material Lingox, вторая кожа)Бренд: LINGOX FACTORY. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6595,11 +6611,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>90% полиамид, 10% эластан</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
@@ -6614,9 +6626,15 @@
       </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
+      <c r="Y48" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>28</v>
+      </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
@@ -6635,7 +6653,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>сорочка, трусики</t>
+          <t xml:space="preserve"> длина рабочей зоны 14,5 см, диаметр 6,5 см</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6655,62 +6673,54 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LINGOX FACTORY</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Сорочка с кружевной вставкой Veer LXL</t>
+          <t>Мастурбатор-вагина в тубе Lexi Lowe</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-22426-1299</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-18474-1299</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>99999</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Мастурбатор-вагина в тубе Lexi Lowe Vagina Private Stars</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22426/22426_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22426/22426_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18474/18474_18474_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная сорочка с расклешённым силуэтом, спереди и на спине вставки из кружева с цветочным рисунком. Зона декольте украшена подвеской со стразами. В комплект входят трусики. Сорочка с кружевной вставкой Veer LXL.  Сорочка с кружевной вставкой Veer LXL. Модель: livco-90406lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: голубой. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Мастурбатор-вагина в тубе Lexi Lowe Vagina Private Stars.  Мастурбатор-вагина в тубе Lexi Lowe Vagina Private Stars. Модель: lingox-6011022. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный, черный корпус. TPE (Re-Evolution Skin Material Lingox, вторая кожа)Бренд: LINGOX FACTORY. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6723,11 +6733,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>88% полиэстер, 12% эластан</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
@@ -6742,9 +6748,15 @@
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>28</v>
+      </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
@@ -6763,7 +6775,7 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>сорочка, трусики</t>
+          <t xml:space="preserve"> длина рабочей зоны 14,5 см, диаметр 6,5 см</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -6783,40 +6795,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LINGOX FACTORY</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Сорочка с кружевной вставкой Veer SM</t>
+          <t>Мастурбатор-рот в форме бутылки Lingox</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-22427-1299</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-16399-1299</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>99999</v>
@@ -6828,17 +6832,17 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22427/22427_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22427/22427_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16399/16399_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16399/16399_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16399/16399_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16399/16399_3_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная сорочка с расклешённым силуэтом, спереди и на спине вставки из кружева с цветочным рисунком. Зона декольте украшена подвеской со стразами. В комплект входят трусики. Сорочка с кружевной вставкой Veer SM.  Сорочка с кружевной вставкой Veer SM. Модель: livco-90406sm. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: голубой. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Мастурбатор-рот в форме бутылки Lingox Triple.  Мастурбатор-рот в форме бутылки Lingox Triple. Модель: lingox-8010. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Элитная продукция &gt; Вагины, мастурбаторы. Элитная продукция. Цвет: черный с красным. Материал: вторая кожа. Батареек нет в комплекте. Бренд: LINGOX FACTORY. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6853,7 +6857,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>88% полиэстер, 12% эластан</t>
+          <t>вторая кожа</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -6870,15 +6874,29 @@
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
+      <c r="Y50" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>28</v>
+      </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
+      <c r="AD50" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.5</v>
+      </c>
       <c r="AH50" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6891,7 +6909,7 @@
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>сорочка, трусики</t>
+          <t>мастурбатор в бутылке, пробник смазки, переводная тату</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
@@ -6911,40 +6929,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>LINGOX FACTORY</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Боди с цветочным рисунком Roslindi LXL</t>
+          <t>Мастурбатор-рот в форме бутылки Lingox</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-22425-1299</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-16398-1299</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>99999</v>
@@ -6956,17 +6966,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22425/22425_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22425/22425_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16398/16398_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16398/16398_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16398/16398_3_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежное боди с цветочным рисунком, спина открытая, бретели завязываются вокруг шеи. Боди с цветочным рисунком Roslindi LXL.  Боди с цветочным рисунком Roslindi LXL. Модель: livco-90411lxl. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: голубой. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Мастурбатор-рот в форме бутылки Lingox Triple.  Мастурбатор-рот в форме бутылки Lingox Triple. Модель: lingox-8027. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Элитная продукция &gt; Вагины, мастурбаторы. Элитная продукция. Цвет: красный с белым. Материал: вторая кожа. Батареек нет в комплекте. Бренд: LINGOX FACTORY. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6981,7 +6991,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>вторая кожа</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -6998,15 +7008,29 @@
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
+      <c r="Y51" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>28</v>
+      </c>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
+      <c r="AD51" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="AH51" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7019,7 +7043,7 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>мастурбатор-рот, пробник смазки, переводная тату</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -7039,7 +7063,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -7055,22 +7079,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Боди с цветочным рисунком Roslindi SM</t>
+          <t>Черный комбинезон с нежным волнистым</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-22424-1299</t>
+          <t>id-12923-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -7084,12 +7108,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22424/22424_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22424/22424_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12923/12923_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12923/12923_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12923/12923_1_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежное боди с цветочным рисунком, спина открытая, бретели завязываются вокруг шеи. Боди с цветочным рисунком Roslindi SM.  Боди с цветочным рисунком Roslindi SM. Модель: livco-90411sm. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: голубой. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Черный комбинезон с нежным волнистым узором  Abra Black (SL).  Черный комбинезон с нежным волнистым узором  Abra Black (SL). Модель: livco-03101slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -7167,7 +7191,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -7183,22 +7207,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Белый корсет с кружевом и плотными</t>
+          <t>Черный комбинезон в сетку с узором</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-22444-1299</t>
+          <t>id-12924-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -7212,12 +7236,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22444/22444_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22444/22444_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22444/22444_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22444/22444_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12924/12924_1_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Корсет из микрофибры со вставками из кружева. Бретели крест на крест, регулируются по длине. Пажи для чулок не отстегиваются, регулируются по длине. А зону декольте украшает кулон. В комплект входят трусики. Белый корсет с кружевом и плотными чашками Alazne LXL.  Белый корсет с кружевом и плотными чашками Alazne LXL. Модель: livco-90421-1lxlw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: белый. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Chrysanthe представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного сетчатого материала с интересным узором. Чулок на тонких бретелях отлично облегает фигуру, подчеркивая все её возбуждающие изгибы. Черный комбинезон в сетку с узором Chrysanthe  Black (SL).  Черный комбинезон в сетку с узором Chrysanthe  Black (SL). Модель: livco-03124slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -7237,7 +7261,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>88% полиэстер, 12% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -7275,7 +7299,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>корсет, трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -7295,7 +7319,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -7311,22 +7335,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Белый корсет с кружевом и плотными</t>
+          <t>Черный комбинезон с ажурным узором</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-22452-1299</t>
+          <t>id-13086-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -7340,12 +7364,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22452/22452_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22452/22452_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22452/22452_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22452/22452_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13086/13086_1_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Корсет из микрофибры со вставками из кружева. Бретели крест на крест, регулируются по длине. Пажи для чулок не отстегиваются, регулируются по длине. А зону декольте украшает кулон. В комплект входят трусики. Белый корсет с кружевом и плотными чашками Alazne SM.  Белый корсет с кружевом и плотными чашками Alazne SM. Модель: livco-90421-1smw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: белый. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Черный комбинезон с ажурным узором Elissa Black (SL).  Черный комбинезон с ажурным узором Elissa Black (SL). Модель: livco-03128slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -7365,7 +7389,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>88% полиэстер, 12% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -7403,7 +7427,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>корсет, трусики</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7423,7 +7447,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -7439,22 +7463,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Бордовый кружевной комплект Nerysa SM</t>
+          <t>Черный комбинезон с ажурным верхом</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-22482-1299</t>
+          <t>id-12903-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -7468,12 +7492,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22482/22482_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22482/22482_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22482/22482_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22482/22482_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12903/12903_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12903/12903_2_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный комплект из стрейч-атласного материала и нежного кружева. В комплект входят: бюстгальтер, широкий пояс для чулок на шнуровке и трусики. Бордовый кружевной комплект Nerysa SM.  Бордовый кружевной комплект Nerysa SM. Модель: livco-90427sm. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: бордовый, черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Черный комбинезон с ажурным верхом Josslyn Black (SL).  Черный комбинезон с ажурным верхом Josslyn Black (SL). Модель: livco-03280slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7531,7 +7555,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>лиф, трусики, пояс</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7551,7 +7575,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -7567,22 +7591,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Красный халатик с капюшоном и опушкой</t>
+          <t xml:space="preserve">Черный комбинезон с узором Zita Black </t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-22867-1299</t>
+          <t>id-13459-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -7596,12 +7620,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22867/22867_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22867/22867_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22867/22867_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13459/13459_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13459/13459_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13459/13459_3_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Праздничный халатик в стиле платья с запахом и капюшоном из эластичного материала. Платье украшено пухом марабу. Красный халатик с капюшоном и опушкой из перьев марабу Monisa SM.  Красный халатик с капюшоном и опушкой из перьев марабу Monisa SM. Модель: livco-90473smr. Белье. Эротическое белье для женщин &gt; Новогодние костюмы. Эротическое белье для женщин &gt; Халатики. Цвет: белый, красный. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Zita представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного чулочного материала в мелкую сетку и декорирован нежным узором . Глубокое декольте оформлено крупной сеткой. Комбинезон отлично облегает тело, подчеркивая его женственность и сексуальность. В области половых органов выполнен вырез, что дает возможность оставаться в белье даже во время интимной близости. Черный комбинезон с узором Zita Black  (SL).  Черный комбинезон с узором Zita Black  (SL). Модель: livco-03285slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7621,7 +7645,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>88% полиэстер, 12% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -7679,7 +7703,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -7695,22 +7719,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Полупрозрачный халатик с кружевом</t>
+          <t>Белый комбинезон с узором Zita White</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-22423-1299</t>
+          <t>id-13463-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -7724,12 +7748,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22423/22423_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22423/22423_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13463/13463_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13463/13463_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13463/13463_3_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Полупрозрачный пеньюар и трусики. Пеньюар украшает плоское кружево с цветочным рисунком и атлас на рукавах. Полупрозрачный халатик с кружевом Mreanim LXL.  Полупрозрачный халатик с кружевом Mreanim LXL. Модель: livco-90476lxlb. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Zita представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного чулочного материала в мелкую сетку и декорирован нежным узором. Глубокое декольте оформлено крупной сеткой. Комбинезон отлично облегает тело, подчеркивая его женственность и сексуальность. В области половых органов выполнен вырез, что дает возможность оставаться в белье даже во время интимной близости. Белый комбинезон с узором Zita White (SL).  Белый комбинезон с узором Zita White (SL). Модель: livco-03286slw. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7787,7 +7811,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>халат, пояс, трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7807,7 +7831,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -7823,22 +7847,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Полупрозрачный халатик с кружевом</t>
+          <t>Красный комбинезон с узором Zita Red</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-22422-1299</t>
+          <t>id-13809-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -7852,12 +7876,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22422/22422_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22422/22422_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13809/13809_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13809/13809_2_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Полупрозрачный пеньюар и трусики. Пеньюар украшает плоское кружево с цветочным рисунком и атлас на рукавах. Полупрозрачный халатик с кружевом Mreanim SM.  Полупрозрачный халатик с кружевом Mreanim SM. Модель: livco-90476smb. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Красный комбинезон с узором Zita Red (SL).  Красный комбинезон с узором Zita Red (SL). Модель: livco-03287slr. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7915,7 +7939,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>халат, пояс, трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7935,7 +7959,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -7951,22 +7975,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Сорочка с полуоткрытой спиной Mnemosa</t>
+          <t>Черный комбинезон с ажурным верхом</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-22477-1299</t>
+          <t>id-13472-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -7980,12 +8004,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22477/22477_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22477/22477_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22477/22477_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22477/22477_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13472/13472_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13472/13472_2_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сорочка из микротюля, чашка мягкая, украшенная вышивкой из цветов, спина полуоткрытая. Застежки-крючки. Бретели регулируются по длине. В комплект входят трусики стринги на завязках, украшены вышивкой. Сорочка с полуоткрытой спиной Mnemosa LXL.  Сорочка с полуоткрытой спиной Mnemosa LXL. Модель: livco-90482lxl. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: серый. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Бодистокинг создан для темпераментных женщин из черного полупрозрачного кружева. Temperance дает женщине полную свободу, эластичный и отлично сидит на теле. Воздействуя на мужское воображение, цветочные и симметричные узоры придают фигуре желаемой формы, а тонкие женственные вырезы позволяют пережить приятные моменты, не снимая костюма. Плечи и спину  украшают страстные бретельки. Верх сделан в виде тонкого корсета. Костюм не выделяется под платьем, а колготки прекрасно подходят к юбке, придавая эффект плотно сплетенной сетки чулков на ногах. Черный комбинезон с ажурным верхом Temperance Black (SL).  Черный комбинезон с ажурным верхом Temperance Black (SL). Модель: livco-03502slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -8043,7 +8067,7 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>сорочка, трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
@@ -8063,7 +8087,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -8079,22 +8103,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Короткий халатик с полуоткрытой спиной</t>
+          <t>Черный комбинезон с ажурным узором</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-22420-1299</t>
+          <t>id-13815-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -8108,12 +8132,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22420/22420_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22420/22420_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22420/22420_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13815/13815_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13815/13815_2_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Короткий пеньюар с полуоткрытой спиной. Изделие украшенно вставками из кружева. В комплект входят трусики стринги и атласный пояс. Короткий халатик с полуоткрытой спиной Emine LXL.  Короткий халатик с полуоткрытой спиной Emine LXL. Модель: livco-90486lxlb. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Черный бодистокинг - комбинация топа и чулок из узорного кружева. Эластичный и удобный. Имеет интимный вырез, надежно застегивается и не сдавливает. Бодистокинг Bansari великолепно подчеркивает ноги, делая их более стройными благодаря асимметричному узору и плотному плетению кружева  идеально подходит под платье. В верхней части - глубокий вырез с разной ширины плетением ткани и оригинальными открытыми участками на груди и животе. Функцию бретелек выполняют тесемки с модными разрезами. Бодистокинг идеально повторяет очертания тела. Черный комбинезон с ажурным узором Bansari Black (SL).  Черный комбинезон с ажурным узором Bansari Black (SL). Модель: livco-03534slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -8133,7 +8157,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>82% полиамид, 18% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -8171,7 +8195,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>халат, пояс, трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -8191,7 +8215,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -8207,22 +8231,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Короткий халатик с полуоткрытой спиной</t>
+          <t>Боди-комбинезон Esmeralda с имтацией</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-22421-1299</t>
+          <t>id-24932-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -8236,12 +8260,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22421/22421_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22421/22421_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22421/22421_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24932/24932_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24932/24932_2_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Короткий пеньюар с полуоткрытой спиной. Изделие украшенно вставками из кружева. В комплект входят трусики стринги и атласный пояс. Короткий халатик с полуоткрытой спиной Emine SM.  Короткий халатик с полуоткрытой спиной Emine SM. Модель: livco-90486smb. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Боди-комбинезон в мелкую сеточку с бантиками и имитацией чулок. Боди-комбинезон Esmeralda с имтацией чулок.  Боди-комбинезон Esmeralda с имтацией чулок. Модель: livco-17188slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -8261,7 +8285,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>82% полиамид, 18% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -8299,7 +8323,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>халат, пояс, трусики</t>
+          <t>боди-комбинезон</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -8319,7 +8343,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -8335,22 +8359,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Чулки под пояс в сеточку с изящным</t>
+          <t>Боди-комбинезон с имитацией чулок</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-22873-1299</t>
+          <t>id-22446-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -8364,12 +8388,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22873/22873_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22446/22446_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22446/22446_2_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящные чулки в сеточку для ношения с поясом. Украшены широкой кружевной коронкой с цветочным мотивом. Чулки Mabella идеально подходят к комплекту белья Mepiria. Чулки под пояс в сеточку с изящным кружевом Mabella LXL.  Чулки под пояс в сеточку с изящным кружевом Mabella LXL. Модель: livco-90503-1lxlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Боди-комбинезон в мелкую сеточку с рисунком. Боди-комбинезон с имитацией чулок Arisha SL.  Боди-комбинезон с имитацией чулок Arisha SL. Модель: livco-17260slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -8389,7 +8413,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t xml:space="preserve">90% полиамид, 10% эластан </t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -8427,7 +8451,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -8447,7 +8471,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -8463,22 +8487,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Чулки под пояс в сеточку с изящным</t>
+          <t>Боди-комбинезон в мелкую сеточку</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-22872-1299</t>
+          <t>id-22445-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -8492,12 +8516,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22872/22872_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22445/22445_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22445/22445_2_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящные чулки в сеточку для ношения с поясом. Украшены широкой кружевной коронкой с цветочным мотивом. Чулки Mabella идеально подходят к комплекту белья Mepiria. Чулки под пояс в сеточку с изящным кружевом Mabella SM.  Чулки под пояс в сеточку с изящным кружевом Mabella SM. Модель: livco-90503-1smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Боди-комбинезон в мелкую сеточку с рисунком. Боди-комбинезон в мелкую сеточку Cameron SL.  Боди-комбинезон в мелкую сеточку Cameron SL. Модель: livco-17265slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8517,7 +8541,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t xml:space="preserve">90% полиамид, 10% эластан </t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -8555,7 +8579,7 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>боди-комбинезон</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8575,7 +8599,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -8591,22 +8615,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Элегантный черный кружевной комплект</t>
+          <t>Новогодний боди-комбинезон с</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-22870-1299</t>
+          <t>id-22869-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -8620,12 +8644,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22870/22870_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22870/22870_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22869/22869_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22869/22869_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22869/22869_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22869/22869_4_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Модель изготовлена в классической черной гамме из кружевной ткани с цветочным узором. Бюстгальтер с мягкими чашечками и широкими бретелями  спереди украшен атласным бантиком. Сзади застегивается на крючки. Бретели регулируются по длине. Широкий пояс для чулок с посадкой на талии и корсетной шнуровкой сзади выглядит очень элегантно. Элегантный черный кружевной комплект белья Mepiria SM.  Элегантный черный кружевной комплект белья Mepiria SM. Модель: livco-90503smb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Красный кэтсьют с имитацией боди и чулок на поясе без интимного доступа. Особую нарядность модели придаёт белоснежный пух марабу. Радостный перезвон бубенчиков создаст праздничное настроение!.Новогодний боди-комбинезон с бубенчиками и пухом марабу Shivali SL.  Новогодний боди-комбинезон с бубенчиками и пухом марабу Shivali SL. Модель: livco-17284slr. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: белый, красный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8683,7 +8707,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>мягкий бюстгальтер, пояс с пажами для чулок, трусики стринг</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8703,7 +8727,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8719,22 +8743,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Черный кружевной комплект Louanee SM</t>
+          <t>Контактный боди-комбинезон с вырезом на</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-22464-1299</t>
+          <t>id-22450-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -8748,12 +8772,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22464/22464_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22464/22464_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22464/22464_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22464/22464_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22450/22450_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22450/22450_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22450/22450_3_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект нижнего белья, состоящий из бюстгальтера и трусиков. Бюстгальтер с мягкими чашечками выполнен из эластичного кружева с цветочным узором. В центре украшен атласным бантиком. Сзади застегивается на крючки, бретели регулируются по длине. Черные кружевные трусики эффектно выделяют ягодицы благодаря оригинальному покрою. Сочетание кружевной и прозрачной тканей добавляет комплекту изюминку. Черный кружевной комплект Louanee SM.  Черный кружевной комплект Louanee SM. Модель: livco-90504smb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">Боди-комбинезон в мелкую сеточку с открытыми ягодицами и полуоткрытой спиной. Вырез на ягодицах в форме сердца. Контактный боди-комбинезон с вырезом на ягодицах в форме сердца Sonia SL.  Контактный боди-комбинезон с вырезом на ягодицах в форме сердца Sonia SL. Модель: livco-17285slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8811,7 +8835,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>лиф, трусики</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8831,67 +8855,79 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Гнущаяся насадка для страпон-трусиков</t>
+          <t>Боди-комбинезон с имитацией чулок</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-26958-1299</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+          <t>id-22451-1299</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>99999</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>насадка, штырек</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26958/26958_26958_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22451/22451_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22451/22451_2_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насадка FLEX&amp;FIX REAL Standard. Размеры фаллоимитатора средние, ближе к небольшим. Усилена стимуляция клиторальной зоны за счет формы изделия и нежных шипиков. Обязательна нежная оболочка из зарекомендовавшего себя с лучшей стороны мягкого атравматичного материала НЕОСКИН.И абсолютная НОВИНКА для изделий такого размера и качества: система FLEX&amp;FIX  это возможность изменения формы в зависимости от необходимости при интимной близости и фиксация в новом положении.Преимущества: атравматичность поверхности, нежная бархатистая кожа, двухслойная структура, созданная по технологии экзопротезирования.Компоненты, пигменты, упаковка токсикологически безопасны. Прошли добровольную сертификацию по стандарту изделий бытового назначения и изделий контактирующим с пищей. Гнущаяся насадка для страпон-трусиков FLEX&amp;FIX REAL Standard 6.3''.  Гнущаяся насадка для страпон-трусиков FLEX. Модель: lovetoy-865103. Россия. FIX REAL Standard 6.3''. Цвет: для женщин и мужчин. Neoskin (вторая кожа)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Эластичный комбинезон и имитиацией чулочек и топа. Боди-комбинезон с имитацией чулок Dalitso SL.  Боди-комбинезон с имитацией чулок Dalitso SL. Модель: livco-17287slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Секс-игрушки</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Секс-игрушки</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>90% полиамид, 10% эластан</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
@@ -8927,7 +8963,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>общая длина 20 см, глубина проникновения 17,5 см, диаметр 3,2-3,8 см</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8947,32 +8983,40 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LOVETOY</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Сувенир член-ждунчик</t>
+          <t>Комбинезон с фантазийным узором и с</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-21670-1299</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+          <t>id-22447-1299</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>99999</v>
@@ -8984,32 +9028,32 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21670/21670_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22447/22447_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22447/22447_2_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сувенир в виде головки члена из ПВХ черного цвета. Упакован в яркую подарочную коробку. Сувенир член-ждунчик.  Сувенир член-ждунчик. Модель: lovetoy-920403. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: ПВХ. Батареек нет в комплекте. Бренд: LOVETOY. </t>
+          <t xml:space="preserve">Боди-комбинезон с открытой спиной в сеточку с разным плетением. Комбинезон с фантазийным узором и с имитацией чулок.  Комбинезон с фантазийным узором и с имитацией чулок. Модель: livco-17290slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>ПВХ</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -9029,20 +9073,12 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>10.45</v>
-      </c>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9055,7 +9091,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -9075,13 +9111,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LOVETOY</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -9091,16 +9127,24 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Двойной фаллоимитатор из киберкожи с</t>
+          <t>Боди-комбинезон Adelina SL</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-20178-1299</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+          <t>id-22453-1299</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>99999</v>
@@ -9112,32 +9156,32 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20178/20178_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22453/22453_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22453/22453_2_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Двухголовый фаллоимитатор телесного цвета. Материал - киберскин. Рельефный, невероятно гибкий, с выраженными головками. Двойной фаллоимитатор из киберкожи с пупырышками и венками.  Двойной фаллоимитатор из киберкожи с пупырышками и венками. Модель: lovetoy-930500. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Двойные. Цвет: телесный. Материал: нежный TPE (киберкожа). Батареек нет в комплекте. Бренд: LOVETOY. </t>
+          <t xml:space="preserve">Нежный боди-комбинезон в мелкую сеточку с рисунком. Боди-комбинезон Adelina SL.  Боди-комбинезон Adelina SL. Модель: livco-17295slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>нежный TPE (киберкожа)</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -9154,25 +9198,15 @@
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="n">
-        <v>52.03</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>47.3</v>
-      </c>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>4.3</v>
-      </c>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9185,7 +9219,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>упаковка - полиэтиленовая пленка (без бумажной коробки)</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -9205,13 +9239,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LOVETOY</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -9221,16 +9255,24 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Двойной фаллоимитатор из киберкожи</t>
+          <t>Контактный комбинезон с узором в форме</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-20180-1299</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+          <t>id-22455-1299</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>99999</v>
@@ -9242,32 +9284,32 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20180/20180_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22455/22455_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22455/22455_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22455/22455_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22455/22455_4_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Двухголовый фаллоимитатор телесного цвета. Материал - киберскин. Рельефный, невероятно гибкий, с выраженными головками. Двойной фаллоимитатор из киберкожи.  Двойной фаллоимитатор из киберкожи. Модель: lovetoy-931300. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Двойные. Цвет: телесный. Материал: нежный TPE (киберкожа). Батареек нет в комплекте. Бренд: LOVETOY. </t>
+          <t xml:space="preserve">Сексуальный боди-комбинезон в мелкую сеточку с ажурным рисунком в форме крыльев, подчеркивает формы. Контактный комбинезон с узором в форме крыльев Renza SL.  Контактный комбинезон с узором в форме крыльев Renza SL. Модель: livco-17297slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>нежный TPE (киберкожа)</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -9284,25 +9326,15 @@
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>46</v>
-      </c>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9315,7 +9347,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>упаковка - полиэтиленовая пленка (без бумажной коробки)</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -9335,32 +9367,40 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LOVETOY</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>для лесбиянок</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Длинный двойной фаллос для лесбиянок</t>
+          <t>Фантазийный контактный комбинезон с</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-14250-1299</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+          <t>id-24931-1299</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>99999</v>
@@ -9372,32 +9412,32 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/14250/14250_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14250/14250_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24931/24931_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24931/24931_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24931/24931_3_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Двойной фаллоимитатор, изготовленный из киберкожи. Имеет ярко выраженные головки, рельефную поверхность в виде прорисованных вен. Приятный на ощупь, гибкий и упругий. Длинный двойной фаллос для лесбиянок Double Dong (вторая кожа).  Длинный двойной фаллос для лесбиянок Double Dong (вторая кожа). Модель: lovetoy-931303. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Двойные. Цвет: телесный. Материал: Neoskin (вторая кожа). Батареек нет в комплекте. Бренд: LOVETOY. </t>
+          <t xml:space="preserve">Сексуальный боди-комбинезон в мелкую сеточку с цветочным рисунком, приспущенными  длинными рукавами и имитацией шнуровки на груди. Фантазийный контактный комбинезон с открытыми плечами Olamiden.  Фантазийный контактный комбинезон с открытыми плечами Olamiden. Модель: livco-17300slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Neoskin (вторая кожа)</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -9414,25 +9454,15 @@
       </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>45</v>
-      </c>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9445,7 +9475,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -9465,13 +9495,13 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LOVETOY</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -9481,16 +9511,24 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Тонкий изящный двусторонний</t>
+          <t>Комплект с жемчугом и с имитацией чулок</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-20179-1299</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+          <t>id-22440-1299</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>99999</v>
@@ -9502,32 +9540,32 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20179/20179_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22440/22440_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22440/22440_2_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Двухсторонний реалистичный фаллоимитатор киберкожа. Без запаха. Тонкий изящный двусторонний фаллоимитатор из киберкожи.  Тонкий изящный двусторонний фаллоимитатор из киберкожи. Модель: lovetoy-937100. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Двойные. Цвет: телесный. Материал: нежный TPE (киберкожа). Батареек нет в комплекте. Бренд: LOVETOY. </t>
+          <t xml:space="preserve">Сексуальный боди-комбинезон в мелкую сеточку с ажурным рисунком, изделие украшено жемчугом. Трусики в комплект не входят. Комплект с жемчугом и с имитацией чулок Pirvina SL.  Комплект с жемчугом и с имитацией чулок Pirvina SL. Модель: livco-17311slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>нежный TPE (киберкожа)</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -9544,25 +9582,15 @@
       </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>43</v>
-      </c>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>3.7</v>
-      </c>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9575,7 +9603,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t xml:space="preserve">упаковка - полиэтиленовая пленка (без бумажной коробки) </t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9595,67 +9623,79 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Фаллоимитаторы</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сдвоенный гнущийся фаллоимитатор FLEX </t>
+          <t>Боди-комбинезон в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-27759-1299</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+          <t>id-22655-1299</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>99999</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Сдвоенный гнущийся фаллоимитатор FLEX &amp;amp</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27759/27759_27759_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22655/22655_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22655/22655_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22655/22655_3_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сдвоенный гнущийся фаллоимитатор для лесбийских пар и не только. Если вы с партнером готовы к экспериментам и нестандартным играм, то данная игрушка также подойдет вам.Двойной фаллос имеет гнущийся каркас, который может фиксироваться в разных положениях, создавая необходимый изгиб.Сделан стимулятор из нежного материала максимально напоминающего человеческую кожу. Рекомендуем использовать смазки только на водной основе. Сдвоенный гнущийся фаллоимитатор FLEX &amp; FIX SISTEM.  Сдвоенный гнущийся фаллоимитатор FLEX . Модель: lovetoy-941303. Россия.  FIX SISTEM. Цвет: для лесбиянок. Neoskin (вторая кожа)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Эффектный боди-комбинезон в мелкую сетку с затейливым узором.Верх соединяется с чулочками, повторяя рисунок. Боди-комбинезон в мелкую сеточку с имитацией чулок на поясе Mircianna SL.  Боди-комбинезон в мелкую сеточку с имитацией чулок на поясе Mircianna SL. Модель: livco-17313slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Секс-игрушки</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Секс-игрушки</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90% полиамид, 10% эластан </t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
@@ -9691,7 +9731,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>общая длина 47 см, диаметр 4,2 см</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9711,13 +9751,13 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LOVETOY</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -9727,16 +9767,24 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Гигантский фаллос на присоске вторая</t>
+          <t>Откровенное боди со стразами Narleni SL</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-17214-1299</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+          <t>id-23260-1299</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>99999</v>
@@ -9748,32 +9796,32 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17214/17214_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23260/23260_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23260/23260_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23260/23260_3_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Реалистичный фаллоимитатор киберкожа. Рельефный, невероятно гибкий, с выраженной головкой. Без запаха. Гигантский фаллос на присоске (вторая кожа).  Гигантский фаллос на присоске (вторая кожа). Модель: lovetoy-950300. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Гиганты и фистинг. Вибраторы и фаллоимитаторы &gt; Супер реалистичные. Цвет: телесный. Материал: Fanta Flesh (вторая кожа). Батареек нет в комплекте. Бренд: LOVETOY. </t>
+          <t xml:space="preserve">Эффектное боди с вырезами и открытой спинкой. Модель украшает россыпь серебристых бусинок со стразами. Откровенное боди со стразами Narleni SL.  Откровенное боди со стразами Narleni SL. Модель: livco-17327slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Fanta Flesh (вторая кожа)</t>
+          <t xml:space="preserve">90% полиамид, 10% эластан </t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -9790,25 +9838,15 @@
       </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>33</v>
-      </c>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="n">
-        <v>8.635</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>7.85</v>
-      </c>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9841,32 +9879,40 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LOVETOYS INDUSTRIAL</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Реалистичная вагина с вибрацией Pet</t>
+          <t>Сексуальное платье Laurinda SM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-16291-1299</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+          <t>id-22488-1299</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>99999</v>
@@ -9878,32 +9924,32 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16291/16291_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16291/16291_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22488/22488_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22488/22488_2_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Реалистичная вагина с вибрацией Pet Pussy (вторая кожа).  Реалистичная вагина с вибрацией Pet Pussy (вторая кожа). Модель: lovetoy-dl-68. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. С вибрацией. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: LOVETOYS INDUSTRIAL. </t>
+          <t xml:space="preserve">Сексуальное мини-платье из эластичной сеточки и лент сделает Вас сногсшибательной обольстительницей. Ни один мужчина не останется равнодушным! У платья есть пажи для крепления к чулочкам. Чулки в комплект не входят. Сексуальное платье Laurinda SM.  Сексуальное платье Laurinda SM. Модель: livco-30153smb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>нежный TPR (вторая кожа)</t>
+          <t>88% полиэстер, 12% эластан</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9918,21 +9964,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W74" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X74" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>17</v>
-      </c>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
@@ -9951,7 +9987,7 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>вагина, вибро-яйцо</t>
+          <t>платье, трусики</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -9971,32 +10007,40 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LOVETOYS INDUSTRIAL</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Реалистичная вагина с вибрацией Pet</t>
+          <t>Костюм медсестры Cascadia LXL</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-16287-1299</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+          <t>id-22486-1299</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>99999</v>
@@ -10008,32 +10052,32 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16287/16287_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16287/16287_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22486/22486_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22486/22486_2_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Реалистичная вагина с вибрацией Pet Pussy (вторая кожа).  Реалистичная вагина с вибрацией Pet Pussy (вторая кожа). Модель: lovetoy-dl-69. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. С вибрацией. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: LOVETOYS INDUSTRIAL. </t>
+          <t xml:space="preserve">Боди роскошной медсестры создаст необходимый образ для игр с партнером. Он будет готов болеть каждый день, если Вы будете лечить его в таком костюме. . Костюм медсестры Cascadia LXL.  Костюм медсестры Cascadia LXL. Модель: livco-32629lxl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>нежный TPR (вторая кожа)</t>
+          <t>88% полиэстер, 12% эластан</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -10048,21 +10092,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W75" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X75" t="n">
-        <v>9.074999999999999</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>17</v>
-      </c>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
@@ -10081,7 +10115,7 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>вагина, вибро-яйцо</t>
+          <t>боди, чулки, ободок</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -10101,32 +10135,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LOVETOYS INDUSTRIAL</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Реалистичная вагина с вибрацией Pet</t>
+          <t>Костюм медсестры Cascadia SM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-16288-1299</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+          <t>id-22487-1299</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>99999</v>
@@ -10138,32 +10180,32 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16288/16288_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16288/16288_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22487/22487_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22487/22487_2_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Реалистичная вагина с вибрацией Pet Pussy (вторая кожа).  Реалистичная вагина с вибрацией Pet Pussy (вторая кожа). Модель: lovetoy-dl-71. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. С вибрацией. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: LOVETOYS INDUSTRIAL. </t>
+          <t xml:space="preserve">Боди роскошной медсестры создаст необходимый образ для игр с партнером. Он будет готов болеть каждый день, если Вы будете лечить его в таком костюме. . Костюм медсестры Cascadia SM.  Костюм медсестры Cascadia SM. Модель: livco-32629sm. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>нежный TPR (вторая кожа)</t>
+          <t>88% полиэстер, 12% эластан</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -10178,21 +10220,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W76" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X76" t="n">
-        <v>9.625</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>17</v>
-      </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
@@ -10211,7 +10243,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>вагина, вибро-яйцо</t>
+          <t>боди, чулки, ободок</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -10231,32 +10263,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LOVETOYS INDUSTRIAL</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Реалистичная вагина с вибрацией Pet</t>
+          <t>Чёрная ажурная маска Mask Black Model 9</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-16292-1299</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+          <t>id-16443-1299</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>99999</v>
@@ -10268,17 +10308,17 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16292/16292_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16292/16292_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16443/16443_1_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Реалистичная вагина с вибрацией Pet Pussy (вторая кожа).  Реалистичная вагина с вибрацией Pet Pussy (вторая кожа). Модель: lovetoy-dl-72. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. С вибрацией. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: LOVETOYS INDUSTRIAL. </t>
+          <t xml:space="preserve">В своих секретных мечты ты всегда хотела быть девушкой Бэтмена? Теперь можешь ею стать, благодаря уникальной маске, которая пробудит в тебе скрытые мечты. Маска черного цвета хорошо сидит на лице благодаря эластичной резинке. Искусный декор придает ей уникальности и таинственности, закрывая лоб, участки вокруг глаз и носа. Чёрная ажурная маска Mask Black Model 9.  Чёрная ажурная маска Mask Black Model 9. Модель: livco-40754slb. Белье. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -10293,7 +10333,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>нежный TPR (вторая кожа)</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -10308,21 +10348,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W77" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X77" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
@@ -10341,7 +10371,7 @@
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>вагина, вибро-яйцо</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
@@ -10361,13 +10391,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LOVETOY23</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10377,16 +10407,24 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Реалистичный водонепроницаемый вибратор</t>
+          <t>Чёрная ажурная маска Mask Black Model</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-18896-1299</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+          <t>id-16445-1299</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>99999</v>
@@ -10398,17 +10436,17 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18896/18896_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18896/18896_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16445/16445_1_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Реалистичный водонепроницаемый вибратор Art-Style №16 (вторая кожа).  Реалистичный водонепроницаемый вибратор Art-Style №16 (вторая кожа). Модель: lovetoy23-008407. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: телесный. Материал: Neoskin (вторая кожа), пластик. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: LOVETOY23. </t>
+          <t xml:space="preserve">Озорная черная маска, загадочный и соблазнительный элемент женского наряда. Ее романтическое звучание проявляется в декоре, который был помещен на высоте лба - кружевное сердце красиво сочетается с боковым, отважным орнаментом. На глазах находится декоративный мотив, который подчеркивает женственный, соблазнительный взгляд, в то время как усиливая его мощь. Чёрная ажурная маска Mask Black Model 10.  Чёрная ажурная маска Mask Black Model 10. Модель: livco-40761slb. Белье. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -10423,7 +10461,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Neoskin (вторая кожа), пластик</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -10440,25 +10478,15 @@
       </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10491,13 +10519,13 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LOVETOY23</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10507,51 +10535,63 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Реалистичный водонепроницаемый вибратор</t>
+          <t>Черный комбинезон с крупной сеткой по</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-18424-1299</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+          <t>id-17243-1299</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>99999</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Реалистичный водонепроницаемый вибратор Art-Style №1 (вторая кожа)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18424/18424_18424_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17243/17243_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17243/17243_2_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор - прекрасный способ заняться сексом так, как захочет его обладательница. Интим-игрушка выполнена из высококачественного материала, внешне и на ощупь схожего с текстурой кожи человека. Реалистичный вибратор имеет рельефную поверхность по всей длине ствола и хорошо прорисованную головку. Такая интим-игрушка прекрасно подойдет как для новичков, так и для профессионалов подобных занятий. Реалистичный водонепроницаемый вибратор Art-Style №1 (вторая кожа).  Реалистичный водонепроницаемый вибратор Art-Style №1 (вторая кожа). Модель: lovetoy23-008507. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: телесный. Neoskin (вторая кожа)Бренд: LOVETOY23. </t>
+          <t xml:space="preserve">.Черный комбинезон с крупной сеткой по бокам Althina SL.  Черный комбинезон с крупной сеткой по бокам Althina SL. Модель: livco-41423slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>90% полиамид, 10% эластан</t>
+        </is>
+      </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
@@ -10566,15 +10606,9 @@
       </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>19</v>
-      </c>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
@@ -10593,7 +10627,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 3,3-4,2 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10613,32 +10647,40 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LUCISTER SERVICES</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Аппарат для удлинения пениса и</t>
+          <t>Мини-платье с кружевными вставками и</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-17854-1299</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+          <t>id-24334-1299</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>99999</v>
@@ -10650,17 +10692,17 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17854/17854_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17854/17854_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17854/17854_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17854/17854_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17854/17854_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17854/17854_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17854/17854_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17854/17854_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17854/17854_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17854/17854_10_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24334/24334_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24334/24334_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24334/24334_3_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Аппарат для удлинения пениса и коррекции изгиба Andro Plus.  Аппарат для удлинения пениса и коррекции изгиба Andro Plus. Модель: lucister-dp0001. Секс-игрушки. Увеличение пениса &gt; Приборы для удлинения пениса. Цвет: белый с золотистым. Материал: пластик, металл, медицинский силикон. Батареек нет в комплекте. Бренд: LUCISTER SERVICES. </t>
+          <t xml:space="preserve">Потрясающее мини-платье из прозрачной сеточки со вставками из кружева. Сзади бретельки регулируются по высоте, а на шее завязочка превращается в игривый бантик, который легко развязать во время любовных игр. В комплект входят трусики-шортики с боковыми разрезами. Мини-платье с кружевными вставками и трусиками Neearis SM.  Мини-платье с кружевными вставками и трусиками Neearis SM. Модель: livco-53544smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -10675,7 +10717,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>пластик, металл, медицинский силикон</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -10713,7 +10755,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>пластмассовое основательное кольцо для вставки члена, пластмассовая опора, латуневые штанги (6 шт.), маленькие стержни для удлинения штанги (6 шт.), удлиняющий силиконовый жгут (1 шт.), винты для фиксации пружины (2 шт.), защитная подушка (1 шт.), силиконовый ремешок для фиксации (1 шт.), измерительная линейка (раскладывается до 30 см.)</t>
+          <t>мини-платье, трусики</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -10733,32 +10775,40 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ООО ЛУНШАНЬ</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Капсулы для мужчин АНДРОГЕРОН (3 кап)</t>
+          <t>Колготки с имитацией ажурных чулок</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-21764-1299</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+          <t>id-22627-1299</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>99999</v>
@@ -10770,17 +10820,17 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21764/21764_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22627/22627_1_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающее средство для мужчин.Повышает потенцию. Оказывает возбуждающий эффект, стимулирует кровообращение в сосудах полового члена, усиливает секрецию гормонов, посредством этого достигается быстрая и длительная эрекция.Капсулы обладают общеукрепляющим и мягким тонизирующим действием для мужчин. Препарат показан людям с пониженной потенцией и с преждевременной эякуляцией.Преимущества капсул Андрогерон:- Быстрый эффект - обычно через 15-30 минут после применения. Скорость восстановления эрекции после применения капсул Андрогерон выше, чем после химических препаратов, эрекция протекает гораздо сильнее, а период возбужденного состояния особенно длителен. Капсулы Андрогерон также питают и укрепляют организм.- Растительный состав препарата питает и оздоравливает организм. Он не содержит гормонов, химических компонентов, не противопоказан людям, употребляющим алкоголь. Капсулы Андрогерон не дают побочных эффектов, безопасны и надежны, в то же время они содержат питательные вещества, укрепляют организм и повышают иммунитет, подходят для применения людям с различными заболеваниями.- Длительный эффект: действие длится от 3 до 5 дней. Мягкое и длительное воздействие. Употребление Андрогерона способствует мобилизации потенциальных возможностей организма, усилению яркости ощущений. Однократное применение обеспечивает длительный эффект.- Капсулы Андрогерон являются примером совершенного сочетания тысячелетней традиции китайской медицины и достижений современных высоких технологий.- Капсулы Андрогерон отличаются приемлемой ценой, их стоимость в 3 раза ниже стоимости аналогичных химических препаратов.В состав входят:- плоды лимонника китайского- семена лука клубневого- кора бархата амурского- кордицепс китайский.Рекомендации по применению: по 1 капсуле 1 раз в день во время еды, за 30-60 минут до предполагаемой близости. рекомендуется запивать водой.Препарат совместим с алкоголем. Капсулы для мужчин АНДРОГЕРОН (3 кап).  Капсулы для мужчин АНДРОГЕРОН (3 кап). Модель: lunsh-150049. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: ООО ЛУНШАНЬ. </t>
+          <t xml:space="preserve">Элегантные колготки с цветочным рисунком чулочков. изготовлены из однослойной эластановой пряжи для прочности. Колготки с имитацией ажурных чулок Durdonata 2 (20 den).  Колготки с имитацией ажурных чулок Durdonata 2 (20 den). Модель: livco-5431-2b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 89% полиамид, 10% эластан, 1% хлопок. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -10793,7 +10843,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>89% полиамид, 10% эластан, 1% хлопок</t>
+        </is>
+      </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
@@ -10829,7 +10883,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>3 капсулы</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10849,32 +10903,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Презерватив LUXE Заводной искуситель</t>
+          <t>Колготки с имитацией ажурных чулок</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-2428-1299</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+          <t>id-22628-1299</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>99999</v>
@@ -10886,32 +10948,32 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2428/2428_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2428/2428_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2428/2428_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22628/22628_1_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презерватив LUXE Заводной искуситель.  Презерватив LUXE Заводной искуситель. Модель: luxe-600. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Элегантные колготки с цветочным рисунком чулочков. изготовлены из однослойной эластановой пряжи для прочности. Колготки с имитацией ажурных чулок Durdonata 3 (20 den).  Колготки с имитацией ажурных чулок Durdonata 3 (20 den). Модель: livco-5431-3b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 89% полиамид, 10% эластан, 1% хлопок. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>89% полиамид, 10% эластан, 1% хлопок</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -10949,7 +11011,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10969,32 +11031,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Презерватив LUXE Красный камикадзе с</t>
+          <t>Колготки с имитацией ажурных чулок</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-2429-1299</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+          <t>id-22629-1299</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>99999</v>
@@ -11006,32 +11076,32 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2429/2429_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2429/2429_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2429/2429_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22629/22629_1_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презерватив LUXE Красный камикадзе с усиками.  Презерватив LUXE Красный камикадзе с усиками. Модель: luxe-601. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Элегантные колготки с цветочным рисунком чулочков. изготовлены из однослойной эластановой пряжи для прочности. Колготки с имитацией ажурных чулок Durdonata 4 (20 den).  Колготки с имитацией ажурных чулок Durdonata 4 (20 den). Модель: livco-5431-4b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 89% полиамид, 10% эластан, 1% хлопок. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>89% полиамид, 10% эластан, 1% хлопок</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -11069,7 +11139,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -11089,32 +11159,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Презерватив LUXE Кричащий банан с</t>
+          <t>Чёрный прозрачный халат с кружевными</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-2430-1299</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+          <t>id-16430-1299</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>99999</v>
@@ -11126,32 +11204,32 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2430/2430_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2430/2430_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/2430/2430_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16430/16430_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16430/16430_2_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презерватив LUXE Кричащий банан с двойными пупырышками.  Презерватив LUXE Кричащий банан с двойными пупырышками. Модель: luxe-602. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Просторный халат Fuksja, завязываемый в поясе бархатной лентой. Полупрозрачный халат, украшенный по концам узорчатым, изящным кружевом.  Широкие рукава длиной 2.3. Халат имеет длину до середины икры и прекрасно сочетается с таким ночным бельём, как ночная рубашка, боди-комбинезон, с корсетом и и коротким платьем. Fuksja  это необычно эротичный халат, предназначенный для романтических моментов и тёплых летних ночей. Когда Вы пожелаете пробудить в себе чувственность, наденьте изысканный халат Fuksja. Мы гарантируем прекрасные ощущения, которые может дать только высококачественное ночное бельё. Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown S.  Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown S. Модель: livco-84181sb. Белье. Смазки, косметика. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -11189,7 +11267,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>халат, пояс</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -11209,54 +11287,62 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Презервативы Luxe Чертов хвост</t>
+          <t>Чёрный прозрачный халат с кружевными</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-540-1299</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+          <t>id-16428-1299</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>48-50</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>99999</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/540/540_540_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16428/16428_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16428/16428_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16428/16428_3_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы Luxe Чертов хвост.  Презервативы Luxe Чертов хвост. Модель: luxe-605. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. натуральный латексБренд: LUXE. </t>
+          <t xml:space="preserve">Просторный халат Fuksja, завязываемый в поясе бархатной лентой. Полупрозрачный халат, украшенный по концам узорчатым, изящным кружевом.  Широкие рукава длиной 2.3. Халат имеет длину до середины икры и прекрасно сочетается с таким ночным бельём, как ночная рубашка, боди-комбинезон, с корсетом и и коротким платьем. Fuksja  это необычно эротичный халат, предназначенный для романтических моментов и тёплых летних ночей. Когда Вы пожелаете пробудить в себе чувственность, наденьте изысканный халат Fuksja. Мы гарантируем прекрасные ощущения, которые может дать только высококачественное ночное бельё. Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown L.  Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown L. Модель: livco-84204lb. Белье. Смазки, косметика. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -11269,7 +11355,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>90% полиамид, 10% эластан</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
@@ -11284,15 +11374,9 @@
       </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>18</v>
-      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
@@ -11311,7 +11395,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 33 мм</t>
+          <t>халат, пояс</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -11331,32 +11415,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Презервативы LUXE ВОСКРЕШАЮШИЙ МЕРТВЕЦА</t>
+          <t>Чёрный прозрачный халат с кружевными</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-27153-1299</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+          <t>id-16431-1299</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>99999</v>
@@ -11368,17 +11460,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27153/27153_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27153/27153_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27153/27153_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27153/27153_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16431/16431_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16431/16431_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16431/16431_3_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Удивите партнера и порадуйте себя новыми ощущениями! Качественное удовольствие с презервативами LUXE Воскрешающий мертвеца  название говорит само за себя.Три латексных презерватива с накопителем и смазкой в яркой фирменной упаковке. Рельеф с ребрами и точками для наивысшего наслаждения и дополнительной стимуляции. Наслаждаться процессом, не беспокоясь о безопасности, легко с презервативами LUXE Воскрешающий мертвеца. Необычная упаковка с креативным дизайном и многообещающим названием также призвана сделать вашу близость незабываемой.Качественный латексСиликоновая смазкаРельефная текстура  точки и ребраПротестировано электроникойКреативная упаковка конвертДлина 180 ммШирина 52 ммТолщина стенок 0,06 ммКоличество в упаковке  3 шт.Презервативы LUXE ВОСКРЕШАЮШИЙ МЕРТВЕЦА (3 шт).  Презервативы LUXE ВОСКРЕШАЮШИЙ МЕРТВЕЦА (3 шт). Модель: luxe-693. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Просторный халат Fuksja, завязываемый в поясе бархатной лентой. Полупрозрачный халат, украшенный по концам узорчатым, изящным кружевом.  Широкие рукава длиной 2.3. Халат имеет длину до середины икры и прекрасно сочетается с таким ночным бельём, как ночная рубашка, боди-комбинезон, с корсетом и и коротким платьем. Fuksja  это необычно эротичный халат, предназначенный для романтических моментов и тёплых летних ночей. Когда Вы пожелаете пробудить в себе чувственность, наденьте изысканный халат Fuksja. Мы гарантируем прекрасные ощущения, которые может дать только высококачественное ночное бельё. Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown XL.  Чёрный прозрачный халат с кружевными вставками Fuksja Dressing Gown XL. Модель: livco-84211xlb. Белье. Смазки, косметика. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -11393,7 +11485,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -11408,21 +11500,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W86" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X86" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>18</v>
-      </c>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
@@ -11441,7 +11523,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>3 шт</t>
+          <t>халат, пояс</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -11461,32 +11543,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Презерватив ТРОПИЧЕСКИЙ ШТОРМ с</t>
+          <t>Черный комбинезон с узором Zita Black</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-28301-1299</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+          <t>id-17287-1299</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>48-50</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>99999</v>
@@ -11498,32 +11588,32 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28301/28301_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28301/28301_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28301/28301_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28301/28301_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28301/28301_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28301/28301_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28301/28301_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28301/28301_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17287/17287_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17287/17287_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17287/17287_3_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Удивите партнера и порадуйте себя новыми ощущениями! Вкусное и качественное удовольствие с презервативами LUXE с ароматом тропических фруктов Тропический шторм.Три латексных презерватива с накопителем и смазкой в яркой фирменной упаковке. Гладкая поверхность и силиконовая смазка для качественного и длительного скольжения. Аромат тропических фруктов взбодрит и освежит ваши отношения! Наслаждаться процессом, не беспокоясь о безопасности, легко с презервативами LUXE Тропический шторм. Необычная упаковка с креативным дизайном и многообещающим названием также призвана сделать вашу близость незабываемой. Презерватив ТРОПИЧЕСКИЙ ШТОРМ с ароматом тропических фруктов (3 шт).  Презерватив ТРОПИЧЕСКИЙ ШТОРМ с ароматом тропических фруктов (3 шт). Модель: luxe-699. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Zita представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного чулочного материала в мелкую сетку и декорирован нежным узором . Глубокое декольте оформлено крупной сеткой. Комбинезон отлично облегает тело, подчеркивая его женственность и сексуальность. В области половых органов выполнен вырез, что дает возможность оставаться в белье даже во время интимной близости. Черный комбинезон с узором Zita Black (XLXXL).  Черный комбинезон с узором Zita Black (XLXXL). Модель: livco-89360xlxxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -11540,25 +11630,15 @@
       </c>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>18</v>
-      </c>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>5.2</v>
-      </c>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11571,7 +11651,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>3 презерватива</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11591,32 +11671,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Презервативы Luxe Парный слалом (3 шт)</t>
+          <t>Новогоднее платье со шнуровкой и</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-25395-1299</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+          <t>id-22866-1299</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>99999</v>
@@ -11628,32 +11716,32 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25395/25395_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25395/25395_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22866/22866_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22866/22866_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22866/22866_3_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ребристые презервативы из натурального латекса с силиконовой смазкой. Презервативы Luxe Парный слалом (3 шт).  Презервативы Luxe Парный слалом (3 шт). Модель: luxe-702. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Соблазнительное платье новогодней прелестницы с капюшоном, украшено перьями марабу. Бюст выполнен из кружевного полотна. Шнуровка и косточки обеспечат идеальную посадку по фигуре. Новогоднее платье со шнуровкой и косточками Snowflake LXL.  Новогоднее платье со шнуровкой и косточками Snowflake LXL. Модель: livco-90093lxlr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: белый, красный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t xml:space="preserve">90% полиамид, 10% эластан </t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -11668,21 +11756,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W88" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X88" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>18</v>
-      </c>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
@@ -11701,7 +11779,7 @@
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>3 презерватива</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -11721,32 +11799,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Вибро-кольцо для стимуляции клитора</t>
+          <t>Новогоднее платье со шнуровкой и</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-22334-1299</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+          <t>id-22865-1299</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>99999</v>
@@ -11758,32 +11844,32 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22334/22334_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22865/22865_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22865/22865_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22865/22865_3_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">В каждой фирменной упаковке содержится презерватив в смазке с виброкольцом розового цвета в комплекте, мягко стимулирует эрогенные зоны партнерши и доводит ее до сладостного экстаза. Виброкольцо универсально по размеру, а время непрерывной работы батарейки около 30 минут. Вибро-кольцо для стимуляции клитора ТЕХАССКИЙ БУТОН Luxe Vibro (презерватив в подарок).  Вибро-кольцо для стимуляции клитора ТЕХАССКИЙ БУТОН Luxe Vibro (презерватив в подарок). Модель: luxe-764. Секс-игрушки. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: розовый. Материал: эластичный силикон. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Соблазнительное платье новогодней прелестницы с капюшоном, украшено перьями марабу. Бюст выполнен из кружевного полотна. Шнуровка и косточки обеспечат идеальную посадку по фигуре. Новогоднее платье со шнуровкой и косточками Snowflake SM.  Новогоднее платье со шнуровкой и косточками Snowflake SM. Модель: livco-90093smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: белый, красный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>эластичный силикон</t>
+          <t xml:space="preserve">90% полиамид, 10% эластан </t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -11821,7 +11907,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>вибро-кольцо, презерватив</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -11841,32 +11927,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Презервативы LUXE АРИЗОНСКИЙ БУЛЬДОГ</t>
+          <t>Черный атласный комплект Jacqueline LXL</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-4346-1299</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+          <t>id-22442-1299</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>99999</v>
@@ -11878,32 +11972,32 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4346/4346_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4346/4346_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22442/22442_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22442/22442_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22442/22442_3_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы LUXE АРИЗОНСКИЙ БУЛЬДОГ.  Презервативы LUXE АРИЗОНСКИЙ БУЛЬДОГ. Модель: luxe-ab. Презервативы. Презервативы &gt; С шариками и усиками. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Элегантный комплект, состоящий из ночной сорочки и пеньюара. Сатиновая сорочка на тонких бретелях декорирована кружевом в зоне декольте. Короткий пеньюар с длинными рукавами также украшен кружевом. Халатик завязывается на пояс на талии. Трусики стринги входят в комплект. Черный атласный комплект Jacqueline LXL.  Черный атласный комплект Jacqueline LXL. Модель: livco-90249-1lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 95 % полиэстер, 5 % эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>95 % полиэстер, 5 % эластан</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -11941,7 +12035,7 @@
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>халат, сорочка, трусики</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -11961,54 +12055,62 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Презервативы LUXE Французский связной с</t>
+          <t>Черный атласный комплект Jacqueline SM</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-543-1299</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+          <t>id-23390-1299</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>99999</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/543/543_543_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23390/23390_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23390/23390_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23390/23390_3_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы LUXE Французский связной с шариками и усиками.  Презервативы LUXE Французский связной с шариками и усиками. Модель: luxe-frsv. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. натуральный латексБренд: LUXE. </t>
+          <t xml:space="preserve">Комплект эротического белья страстного красного цвета, состоящий из сорочки, пеньюара и трусиков. Белье изготовлено из атласной ткани и украшено кружевом. Короткая сорочка на тонких регулируемых бретелях обнажает спину и плечи. Зона декольте расшита кружевом с цветочным узором. Элегантный пеньюар с длинными рукавами также декорирован кружевами. Завязывается на талии с помощью пояса. Аккуратные трусики стринги в тон завершают комплект. Черный атласный комплект Jacqueline SM.  Черный атласный комплект Jacqueline SM. Модель: livco-90249-1smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 95% полиэстер, 5% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -12021,7 +12123,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>95% полиэстер, 5% эластан</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
@@ -12036,15 +12142,9 @@
       </c>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>18</v>
-      </c>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
@@ -12063,7 +12163,7 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 33 мм</t>
+          <t>халат, сорочка, трусики</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
@@ -12083,32 +12183,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Презерватив LUXE Гавайский кактус</t>
+          <t>Черный атласный комплект Jacqueline 2XL</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-10871-1299</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+          <t>id-22443-1299</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>99999</v>
@@ -12120,32 +12228,32 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10871/10871_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10871/10871_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22443/22443_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22443/22443_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22443/22443_3_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Luxe Maxima Гавайский Кактус - это презервативы из латекса с мягчайшей силиконовой смазкой и запоминающимся дополнительным эффектом в виде эластичных усиков. Почему кактус? Потому что на поверхности презерватива расположены длинные, мягкие колючие усики, которые во время интимной близости затрагивают самые чувствительные эрогенные зоны партнёрши и обеспечивают сильнейший всплеск сексуального возбуждения. Непревзойденная защита и безграничное удовольствие - всё, что необходимо для потрясающего секса!.Презерватив LUXE Гавайский кактус.  Презерватив LUXE Гавайский кактус. Модель: luxe-gavkak. Презервативы. Презервативы &gt; С шариками и усиками. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Элегантный комплект, состоящий из ночной сорочки и пеньюара. Сатиновая сорочка на тонких бретелях декорирована кружевом в зоне декольте. Короткий пеньюар с длинными рукавами также украшен кружевом. Халатик завязывается на пояс на талии. Трусики стринги входят в комплект. Черный атласный комплект Jacqueline 2XL.  Черный атласный комплект Jacqueline 2XL. Модель: livco-90249-1xxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 95 % полиэстер, 5 % эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>95 % полиэстер, 5 % эластан</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -12183,7 +12291,7 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>халат, сорочка, трусики</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
@@ -12203,54 +12311,62 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Презервативы LUXE Желтый дьявол</t>
+          <t>Лиловый атласный комплект Jacqueline</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-545-1299</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+          <t>id-22437-1299</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>99999</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/545/545_545_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22437/22437_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22437/22437_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22437/22437_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22437/22437_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22437/22437_5_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы LUXE Желтый дьявол.  Презервативы LUXE Желтый дьявол. Модель: luxe-jd. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. натуральный латексБренд: LUXE. </t>
+          <t xml:space="preserve">Элегантный комплект, состоящий из ночной сорочки и пеньюара. Атласная сорочка на тонких бретелях декорирована кружевом в зоне декольте. Короткий пеньюар с длинными рукавами также украшен кружевом. Халатик завязывается на пояс на талии. Трусики стринги входят в комплект. Лиловый атласный комплект Jacqueline Violet SM.  Лиловый атласный комплект Jacqueline Violet SM. Модель: livco-90249-2sm. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Халатики. Цвет: лиловый. Материал: 95 % полиэстер, 5 % эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -12263,7 +12379,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>95 % полиэстер, 5 % эластан</t>
+        </is>
+      </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
@@ -12278,15 +12398,9 @@
       </c>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>18</v>
-      </c>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
@@ -12305,7 +12419,7 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 33 мм</t>
+          <t>халат, сорочка, трусики</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -12325,54 +12439,62 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Презервативы LUXE Конец света с усиками</t>
+          <t>Атласный комплект Jacqueline LXL</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-547-1299</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+          <t>id-22434-1299</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>99999</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/547/547_547_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22434/22434_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22434/22434_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22434/22434_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22434/22434_1_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы LUXE Конец света с усиками.  Презервативы LUXE Конец света с усиками. Модель: luxe-ksv. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. натуральный латексБренд: LUXE. </t>
+          <t xml:space="preserve">Элегантный комплект из искусственного шёлка, сорочка на тонких бретелях, пеньюар и трусики. Атласный комплект Jacqueline LXL.  Атласный комплект Jacqueline LXL. Модель: livco-90249lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Халатики. Цвет: шампань. Материал: 95 % полиэстер, 5 % эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -12385,7 +12507,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>95 % полиэстер, 5 % эластан</t>
+        </is>
+      </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
@@ -12400,15 +12526,9 @@
       </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>18</v>
-      </c>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="inlineStr"/>
@@ -12427,7 +12547,7 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 33 мм</t>
+          <t>халат, сорочка, трусики</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -12447,32 +12567,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Презерватив LUXE Шоковая терапия</t>
+          <t>Атласный комплект Jacqueline 3XL</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-7831-1299</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+          <t>id-22436-1299</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>99999</v>
@@ -12484,32 +12612,32 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7831/7831_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22436/22436_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22436/22436_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22436/22436_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22436/22436_4_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презерватив LUXE Шоковая терапия.  Презерватив LUXE Шоковая терапия. Модель: luxe-shokt-24. Презервативы. Презервативы &gt; С шариками и усиками. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Элегантный комплект из искусственного шёлка, сорочка на тонких бретелях, пеньюар и трусики. Атласный комплект Jacqueline 3XL.  Атласный комплект Jacqueline 3XL. Модель: livco-90249xxxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Цвет: шампань. Материал: 95 % полиэстер, 5 % эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>95 % полиэстер, 5 % эластан</t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -12547,7 +12675,7 @@
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>халат, сорочка, трусики</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
@@ -12567,38 +12695,38 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LUX FETISH</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Палочка для ласк с розовыми перьями</t>
+          <t>Красный кружевной комплект Claudia LXL</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-19784-1299</t>
+          <t>id-22479-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -12612,17 +12740,17 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19784/19784_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19784/19784_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22479/22479_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22479/22479_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22479/22479_3_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Палочка для ласк с розовыми перьями Feather Tickler.  Палочка для ласк с розовыми перьями Feather Tickler. Модель: luxfet-1460-spk. БДСМ. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: ярко-розовый с черным. Материал: перья, пластик. Батареек нет в комплекте. Бренд: LUX FETISH. </t>
+          <t xml:space="preserve">Кружевной сексуальный комплект: корсет и трусики, их идеально дополняют чулочки. Корсет без косточек, спереди выполнен из кружевного материала, чашка мягкая без косточки, украшена более эластичным кружевом, за счет этого изделие будет идеально сидеть по фигуре. Верх спинки из кружева, низ из стрейч-атласного материала. Пажи для чулок регулируются по длине, отстегиваются. Трусики стринги из стрейч-атласного материала. Чулочки из мягкого эластичного тюля, верх из эластичного кружева. Красный кружевной комплект Claudia LXL.  Красный кружевной комплект Claudia LXL. Модель: livco-90337lxlr. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Комплекты. Цвет: красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -12637,7 +12765,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>перья, пластик</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
@@ -12675,7 +12803,7 @@
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>ками, трусики, чулки</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
@@ -12695,67 +12823,79 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Комплект для фиксации 3 Adjustable Neck</t>
+          <t>Элегантная чёрная сорочка Anisa LXL</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-13232-1299</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+          <t>id-22458-1299</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>99999</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Комплект для фиксации 3 Adjustable Neck &amp;amp</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13232/13232_13232_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22458/22458_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22458/22458_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22458/22458_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22458/22458_2_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Супер-игрушка для двоих! Позволяет зафиксировать партнера надежно и безопасно! Ошейник на липучке легко вытаскивается из бондажа. Фиксаторы для рук или ног (по Вашему желанию) также легко отстегиваются и их можно использовать отдельно! Также бондаж закрепляется на талии с помощью стропы на ремне. 4 ряда металлических колец позволят выбрать нужное положение рук или ног Вашего партнера. Внизу бондажа также есть кольцо, которое можно использовать, например, для поводка. LUX FETISH! Только представь возможности!.Комплект для фиксации 3 Adjustable Neck &amp; Wristraint Set.  Комплект для фиксации 3 Adjustable Neck . Модель: luxfet-1463. США-Китай.  Wristraint Set. Цвет: для пары. нейлон, металлРетейлер: Wisteria. </t>
+          <t xml:space="preserve">Элегантная чёрная сорочка на тонких бретелях из стрейч-атласного материала, благодаря составу ткани идеально облегает фигуру. Чашка мягкая на косточке, прекрасно поддерживает грудь. Трусики входят в комплект. Элегантная чёрная сорочка Anisa LXL.  Элегантная чёрная сорочка Anisa LXL. Модель: livco-90382lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>БДСМ</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>БДСМ</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>90% полиамид, 10% эластан</t>
+        </is>
+      </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
@@ -12791,7 +12931,7 @@
       <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>универсальный</t>
+          <t>сорочка, трусики</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
@@ -12811,38 +12951,38 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LUX FETISH</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Фиксатор запястий к лодыжкам Bondage</t>
+          <t>Элегантная чёрная сорочка Anisa SM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-13255-1299</t>
+          <t>id-22457-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -12856,17 +12996,17 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13255/13255_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13255/13255_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22457/22457_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22457/22457_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22457/22457_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22457/22457_2_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Что может быть более сексуальным, чем девушка в откровенной позе? Фиксаторы-браслеты на липучках помогут зафиксировать запястья на уровне лодыжек, и Вы сможете рассмотреть и воспользоваться всеми прелестями Вашего партнера!.Фиксатор запястий к лодыжкам Bondage Buddy.  Фиксатор запястий к лодыжкам Bondage Buddy. Модель: luxfet-1799. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черный. Материал: нейлон. Батареек нет в комплекте. Бренд: LUX FETISH. </t>
+          <t xml:space="preserve">Элегантная чёрная сорочка на тонких бретелях из стрейч-атласного материала, благодаря составу ткани идеально облегает фигуру. Чашка мягкая на косточке, прекрасно поддерживает грудь. Трусики входят в комплект. Элегантная чёрная сорочка Anisa SM.  Элегантная чёрная сорочка Anisa SM. Модель: livco-90382smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -12881,7 +13021,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>нейлон</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -12919,7 +13059,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>сорочка, трусики</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12939,38 +13079,38 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LUX FETISH</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Эластичный шлем-маска с открытым ртом</t>
+          <t>Сорочка с кружевной вставкой Veer LXL</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-12890-1299</t>
+          <t>id-22426-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -12984,17 +13124,17 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12890/12890_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22426/22426_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22426/22426_2_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Эластичный шлем-маска с открытым ртом Open Mouth Stretch Hood.  Эластичный шлем-маска с открытым ртом Open Mouth Stretch Hood. Модель: luxfet-6007. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: стрейч. Батареек нет в комплекте. Бренд: LUX FETISH. </t>
+          <t xml:space="preserve">Нежная сорочка с расклешённым силуэтом, спереди и на спине вставки из кружева с цветочным рисунком. Зона декольте украшена подвеской со стразами. В комплект входят трусики. Сорочка с кружевной вставкой Veer LXL.  Сорочка с кружевной вставкой Veer LXL. Модель: livco-90406lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: голубой. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -13009,7 +13149,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>стрейч</t>
+          <t>88% полиэстер, 12% эластан</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -13047,7 +13187,7 @@
       <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>сорочка, трусики</t>
         </is>
       </c>
       <c r="AO99" t="inlineStr">
@@ -13067,38 +13207,38 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Комплекты БДСМ</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LUX FETISH</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Черная смирительная рубашка унисекс</t>
+          <t>Сорочка с кружевной вставкой Veer SM</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-8032-1299</t>
+          <t>id-22427-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -13112,17 +13252,17 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/8032/8032_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8032/8032_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22427/22427_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22427/22427_2_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черная смирительная рубашка унисекс Straight Jacket.  Черная смирительная рубашка унисекс Straight Jacket. Модель: luxfet-lf-1476sm. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для мужчин. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: LUX FETISH. </t>
+          <t xml:space="preserve">Нежная сорочка с расклешённым силуэтом, спереди и на спине вставки из кружева с цветочным рисунком. Зона декольте украшена подвеской со стразами. В комплект входят трусики. Сорочка с кружевной вставкой Veer SM.  Сорочка с кружевной вставкой Veer SM. Модель: livco-90406sm. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: голубой. Материал: 88% полиэстер, 12% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -13137,7 +13277,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>88% полиэстер, 12% эластан</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -13175,7 +13315,7 @@
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>сорочка, трусики</t>
         </is>
       </c>
       <c r="AO100" t="inlineStr">
@@ -13195,38 +13335,38 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LUX FETISH</t>
+          <t>LIVCO CORSETTI</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Поддержка головы для орального секса</t>
+          <t>Боди с цветочным рисунком Roslindi LXL</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-11641-1299</t>
+          <t>id-22425-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -13240,17 +13380,17 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11641/11641_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22425/22425_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22425/22425_2_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Поддержка головы для орального секса.  Поддержка головы для орального секса. Модель: luxfet-lf1901. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: нейлон, бархат, кружево. Батареек нет в комплекте. Бренд: LUX FETISH. </t>
+          <t xml:space="preserve">Нежное боди с цветочным рисунком, спина открытая, бретели завязываются вокруг шеи. Боди с цветочным рисунком Roslindi LXL.  Боди с цветочным рисунком Roslindi LXL. Модель: livco-90411lxl. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: голубой. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -13265,7 +13405,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>нейлон, бархат, кружево</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S101" t="inlineStr"/>
@@ -13303,7 +13443,7 @@
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">
